--- a/Assessment Tool.xlsx
+++ b/Assessment Tool.xlsx
@@ -8,12 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cesar.macol/Desktop/Kelley/5 - 2nd Semester/2 - Data Visualization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B376A845-0BC7-444E-B828-2770A36E096B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AFF1A25-025A-6F4C-A91A-F8D74D58870E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{1C26146C-7F73-C846-9C53-63AA09B5F190}"/>
+    <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" activeTab="4" xr2:uid="{1C26146C-7F73-C846-9C53-63AA09B5F190}"/>
   </bookViews>
   <sheets>
-    <sheet name="Cesar" sheetId="1" r:id="rId1"/>
+    <sheet name="Carley" sheetId="4" r:id="rId1"/>
+    <sheet name="Cesar" sheetId="1" r:id="rId2"/>
+    <sheet name="Kendall" sheetId="3" r:id="rId3"/>
+    <sheet name="Melissa" sheetId="2" r:id="rId4"/>
+    <sheet name="Consolidated" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="47">
   <si>
     <t>A</t>
   </si>
@@ -466,12 +470,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -498,6 +496,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -812,11 +816,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF2B891E-5622-6849-947F-B3D181A84691}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18B86E8F-E047-0548-A999-21C47D85FDDA}">
+  <sheetPr>
+    <tabColor theme="4" tint="-0.499984740745262"/>
+  </sheetPr>
   <dimension ref="B1:Q37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33:E36"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -829,7 +836,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
@@ -843,31 +850,32 @@
       <c r="G2" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="14" t="s">
+      <c r="H2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="24" t="s">
         <v>3</v>
       </c>
+      <c r="L2" s="1"/>
       <c r="M2" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="O2" s="14" t="s">
+      <c r="N2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="P2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="15" t="s">
+      <c r="Q2" s="24" t="s">
         <v>3</v>
       </c>
     </row>
@@ -880,41 +888,41 @@
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="14">
         <f>D3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="14">
         <f>D4</f>
         <v>0</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3" s="14">
         <f>D5</f>
         <v>0</v>
       </c>
-      <c r="K3" s="17">
+      <c r="K3" s="15">
         <f>D6</f>
         <v>0</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="M3" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="N3" s="16">
+      <c r="N3" s="14">
         <f>E3</f>
         <v>0</v>
       </c>
-      <c r="O3" s="16">
+      <c r="O3" s="14">
         <f>E4</f>
         <v>0</v>
       </c>
-      <c r="P3" s="16">
+      <c r="P3" s="14">
         <f>E5</f>
         <v>0</v>
       </c>
-      <c r="Q3" s="17">
+      <c r="Q3" s="15">
         <f>E6</f>
         <v>0</v>
       </c>
@@ -928,41 +936,41 @@
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="14">
         <f>D9</f>
         <v>0</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="14">
         <f>D10</f>
         <v>0</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="14">
         <f>D11</f>
         <v>0</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="15">
         <f>D12</f>
         <v>0</v>
       </c>
-      <c r="M4" s="24" t="s">
+      <c r="M4" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="14">
         <f>E9</f>
         <v>0</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="14">
         <f>E10</f>
         <v>0</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="14">
         <f>E11</f>
         <v>0</v>
       </c>
-      <c r="Q4" s="17">
+      <c r="Q4" s="15">
         <f>E12</f>
         <v>0</v>
       </c>
@@ -976,41 +984,41 @@
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="14">
         <f>D15</f>
         <v>0</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="14">
         <f>D16</f>
         <v>0</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="14">
         <f>D17</f>
         <v>0</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="15">
         <f>D18</f>
         <v>0</v>
       </c>
-      <c r="M5" s="24" t="s">
+      <c r="M5" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="N5" s="16">
+      <c r="N5" s="14">
         <f>E15</f>
         <v>0</v>
       </c>
-      <c r="O5" s="16">
+      <c r="O5" s="14">
         <f>E16</f>
         <v>0</v>
       </c>
-      <c r="P5" s="16">
+      <c r="P5" s="14">
         <f>E17</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="17">
+      <c r="Q5" s="15">
         <f>E18</f>
         <v>0</v>
       </c>
@@ -1024,41 +1032,41 @@
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="14">
         <f>D21</f>
         <v>0</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="14">
         <f>D22</f>
         <v>0</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="14">
         <f>D23</f>
         <v>0</v>
       </c>
-      <c r="K6" s="17">
+      <c r="K6" s="15">
         <f>D24</f>
         <v>0</v>
       </c>
-      <c r="M6" s="24" t="s">
+      <c r="M6" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="N6" s="16">
+      <c r="N6" s="14">
         <f>E21</f>
         <v>0</v>
       </c>
-      <c r="O6" s="16">
+      <c r="O6" s="14">
         <f>E22</f>
         <v>0</v>
       </c>
-      <c r="P6" s="16">
+      <c r="P6" s="14">
         <f>E23</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="17">
+      <c r="Q6" s="15">
         <f>E24</f>
         <v>0</v>
       </c>
@@ -1076,41 +1084,41 @@
         <f>SUM(E3:E6)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="14">
         <f>D27</f>
         <v>0</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="14">
         <f>D28</f>
         <v>0</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="14">
         <f>D29</f>
         <v>0</v>
       </c>
-      <c r="K7" s="17">
+      <c r="K7" s="15">
         <f>D30</f>
         <v>0</v>
       </c>
-      <c r="M7" s="24" t="s">
+      <c r="M7" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="N7" s="16">
+      <c r="N7" s="14">
         <f>E27</f>
         <v>0</v>
       </c>
-      <c r="O7" s="16">
+      <c r="O7" s="14">
         <f>E28</f>
         <v>0</v>
       </c>
-      <c r="P7" s="16">
+      <c r="P7" s="14">
         <f>E29</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="17">
+      <c r="Q7" s="15">
         <f>E30</f>
         <v>0</v>
       </c>
@@ -1126,41 +1134,41 @@
       <c r="E8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="14">
         <f>D33</f>
         <v>0</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="14">
         <f>D34</f>
         <v>0</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8" s="14">
         <f>D35</f>
         <v>0</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K8" s="15">
         <f>D36</f>
         <v>0</v>
       </c>
-      <c r="M8" s="24" t="s">
+      <c r="M8" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="N8" s="16">
+      <c r="N8" s="14">
         <f>E33</f>
         <v>0</v>
       </c>
-      <c r="O8" s="16">
+      <c r="O8" s="14">
         <f>E34</f>
         <v>0</v>
       </c>
-      <c r="P8" s="16">
+      <c r="P8" s="14">
         <f>E35</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="17">
+      <c r="Q8" s="15">
         <f>E36</f>
         <v>0</v>
       </c>
@@ -1174,42 +1182,42 @@
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="17">
         <f>SUM(H3:H8)</f>
         <v>0</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="17">
         <f t="shared" ref="I9:K9" si="0">SUM(I3:I8)</f>
         <v>0</v>
       </c>
-      <c r="J9" s="19">
+      <c r="J9" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K9" s="20">
+      <c r="K9" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M9" s="18" t="s">
+      <c r="M9" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="N9" s="19">
+      <c r="N9" s="17">
         <f>SUM(N3:N8)</f>
         <v>0</v>
       </c>
-      <c r="O9" s="19">
-        <f t="shared" ref="O9" si="1">SUM(O3:O8)</f>
-        <v>0</v>
-      </c>
-      <c r="P9" s="19">
-        <f t="shared" ref="P9" si="2">SUM(P3:P8)</f>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="20">
-        <f t="shared" ref="Q9" si="3">SUM(Q3:Q8)</f>
+      <c r="O9" s="17">
+        <f t="shared" ref="O9:Q9" si="1">SUM(O3:O8)</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="18">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1222,42 +1230,42 @@
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="20">
         <f>H9/6</f>
         <v>0</v>
       </c>
-      <c r="I10" s="22">
-        <f t="shared" ref="I10:K10" si="4">I9/6</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="23">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M10" s="21" t="s">
+      <c r="I10" s="20">
+        <f t="shared" ref="I10:K10" si="2">I9/6</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="N10" s="22">
+      <c r="N10" s="20">
         <f>N9/6</f>
         <v>0</v>
       </c>
-      <c r="O10" s="22">
-        <f t="shared" ref="O10" si="5">O9/6</f>
-        <v>0</v>
-      </c>
-      <c r="P10" s="22">
-        <f t="shared" ref="P10" si="6">P9/6</f>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="23">
-        <f t="shared" ref="Q10" si="7">Q9/6</f>
+      <c r="O10" s="20">
+        <f t="shared" ref="O10:Q10" si="3">O9/6</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="21">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1559,7 +1567,3187 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF2B891E-5622-6849-947F-B3D181A84691}">
+  <sheetPr>
+    <tabColor theme="5" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="B1:Q37"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.5" customWidth="1"/>
+    <col min="2" max="2" width="7.5" customWidth="1"/>
+    <col min="3" max="3" width="71.33203125" customWidth="1"/>
+    <col min="6" max="6" width="3.33203125" customWidth="1"/>
+    <col min="12" max="12" width="3.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="G3" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="14">
+        <f>D3</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="14">
+        <f>D4</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="14">
+        <f>D5</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="15">
+        <f>D6</f>
+        <v>10</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="14">
+        <f>E3</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="14">
+        <f>E4</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="14">
+        <f>E5</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="15">
+        <f>E6</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="G4" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="14">
+        <f>D9</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="14">
+        <f>D10</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="14">
+        <f>D11</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="15">
+        <f>D12</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="14">
+        <f>E9</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="14">
+        <f>E10</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="14">
+        <f>E11</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="15">
+        <f>E12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="G5" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="14">
+        <f>D15</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="14">
+        <f>D16</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="14">
+        <f>D17</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="15">
+        <f>D18</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" s="14">
+        <f>E15</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="14">
+        <f>E16</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="14">
+        <f>E17</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="15">
+        <f>E18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="10">
+        <v>10</v>
+      </c>
+      <c r="E6" s="10">
+        <v>10</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="14">
+        <f>D21</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="14">
+        <f>D22</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="14">
+        <f>D23</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="15">
+        <f>D24</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" s="14">
+        <f>E21</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="14">
+        <f>E22</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="14">
+        <f>E23</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="15">
+        <f>E24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="8"/>
+      <c r="C7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="12">
+        <f>SUM(D3:D6)</f>
+        <v>10</v>
+      </c>
+      <c r="E7" s="12">
+        <f>SUM(E3:E6)</f>
+        <v>10</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="14">
+        <f>D27</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="14">
+        <f>D28</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="14">
+        <f>D29</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="15">
+        <f>D30</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" s="14">
+        <f>E27</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="14">
+        <f>E28</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="14">
+        <f>E29</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="15">
+        <f>E30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="14">
+        <f>D33</f>
+        <v>30</v>
+      </c>
+      <c r="I8" s="14">
+        <f>D34</f>
+        <v>10</v>
+      </c>
+      <c r="J8" s="14">
+        <f>D35</f>
+        <v>20</v>
+      </c>
+      <c r="K8" s="15">
+        <f>D36</f>
+        <v>40</v>
+      </c>
+      <c r="M8" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="N8" s="14">
+        <f>E33</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="14">
+        <f>E34</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="14">
+        <f>E35</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="15">
+        <f>E36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="G9" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="17">
+        <f>SUM(H3:H8)</f>
+        <v>30</v>
+      </c>
+      <c r="I9" s="17">
+        <f t="shared" ref="I9:K9" si="0">SUM(I3:I8)</f>
+        <v>10</v>
+      </c>
+      <c r="J9" s="17">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="K9" s="18">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="M9" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="N9" s="17">
+        <f>SUM(N3:N8)</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="17">
+        <f t="shared" ref="O9" si="1">SUM(O3:O8)</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="17">
+        <f t="shared" ref="P9" si="2">SUM(P3:P8)</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="18">
+        <f t="shared" ref="Q9" si="3">SUM(Q3:Q8)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="G10" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="20">
+        <f>H9/6</f>
+        <v>5</v>
+      </c>
+      <c r="I10" s="20">
+        <f t="shared" ref="I10:K10" si="4">I9/6</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="J10" s="20">
+        <f t="shared" si="4"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="K10" s="21">
+        <f t="shared" si="4"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="M10" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="N10" s="20">
+        <f>N9/6</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="20">
+        <f t="shared" ref="O10" si="5">O9/6</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="20">
+        <f t="shared" ref="P10" si="6">P9/6</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="21">
+        <f t="shared" ref="Q10" si="7">Q9/6</f>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="8"/>
+      <c r="C13" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="12">
+        <f>SUM(D9:D12)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="12">
+        <f>SUM(E9:E12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="8"/>
+      <c r="C19" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="12">
+        <f>SUM(D15:D18)</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="12">
+        <f>SUM(E15:E18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+    </row>
+    <row r="23" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+    </row>
+    <row r="24" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+    </row>
+    <row r="25" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="8"/>
+      <c r="C25" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="12">
+        <f>SUM(D21:D24)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="12">
+        <f>SUM(E21:E24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+    </row>
+    <row r="28" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+    </row>
+    <row r="29" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+    </row>
+    <row r="30" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+    </row>
+    <row r="31" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="8"/>
+      <c r="C31" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="12">
+        <f>SUM(D27:D30)</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="12">
+        <f>SUM(E27:E30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="9">
+        <v>30</v>
+      </c>
+      <c r="E33" s="9"/>
+    </row>
+    <row r="34" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="10">
+        <v>10</v>
+      </c>
+      <c r="E34" s="10"/>
+    </row>
+    <row r="35" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="10">
+        <v>20</v>
+      </c>
+      <c r="E35" s="10"/>
+    </row>
+    <row r="36" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="10">
+        <v>40</v>
+      </c>
+      <c r="E36" s="10"/>
+    </row>
+    <row r="37" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C37" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="12">
+        <f>SUM(D33:D36)</f>
+        <v>100</v>
+      </c>
+      <c r="E37" s="12">
+        <f>SUM(E33:E36)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34BABD8B-56D9-0642-917F-32519D5E5D5A}">
+  <sheetPr>
+    <tabColor theme="6" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="B1:Q37"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.5" customWidth="1"/>
+    <col min="2" max="2" width="7.5" customWidth="1"/>
+    <col min="3" max="3" width="71.33203125" customWidth="1"/>
+    <col min="6" max="6" width="3.33203125" customWidth="1"/>
+    <col min="12" max="12" width="3.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="G3" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="14">
+        <f>D3</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="14">
+        <f>D4</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="14">
+        <f>D5</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="15">
+        <f>D6</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="14">
+        <f>E3</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="14">
+        <f>E4</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="14">
+        <f>E5</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="15">
+        <f>E6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="G4" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="14">
+        <f>D9</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="14">
+        <f>D10</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="14">
+        <f>D11</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="15">
+        <f>D12</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="14">
+        <f>E9</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="14">
+        <f>E10</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="14">
+        <f>E11</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="15">
+        <f>E12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="G5" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="14">
+        <f>D15</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="14">
+        <f>D16</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="14">
+        <f>D17</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="15">
+        <f>D18</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" s="14">
+        <f>E15</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="14">
+        <f>E16</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="14">
+        <f>E17</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="15">
+        <f>E18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="G6" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="14">
+        <f>D21</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="14">
+        <f>D22</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="14">
+        <f>D23</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="15">
+        <f>D24</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" s="14">
+        <f>E21</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="14">
+        <f>E22</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="14">
+        <f>E23</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="15">
+        <f>E24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="8"/>
+      <c r="C7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="12">
+        <f>SUM(D3:D6)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="12">
+        <f>SUM(E3:E6)</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="14">
+        <f>D27</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="14">
+        <f>D28</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="14">
+        <f>D29</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="15">
+        <f>D30</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" s="14">
+        <f>E27</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="14">
+        <f>E28</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="14">
+        <f>E29</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="15">
+        <f>E30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="14">
+        <f>D33</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="14">
+        <f>D34</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="14">
+        <f>D35</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="15">
+        <f>D36</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="N8" s="14">
+        <f>E33</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="14">
+        <f>E34</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="14">
+        <f>E35</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="15">
+        <f>E36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="G9" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="17">
+        <f>SUM(H3:H8)</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="17">
+        <f t="shared" ref="I9:K9" si="0">SUM(I3:I8)</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="N9" s="17">
+        <f>SUM(N3:N8)</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="17">
+        <f t="shared" ref="O9:Q9" si="1">SUM(O3:O8)</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="G10" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="20">
+        <f>H9/6</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="20">
+        <f t="shared" ref="I10:K10" si="2">I9/6</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="N10" s="20">
+        <f>N9/6</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="20">
+        <f t="shared" ref="O10:Q10" si="3">O9/6</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="8"/>
+      <c r="C13" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="12">
+        <f>SUM(D9:D12)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="12">
+        <f>SUM(E9:E12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="8"/>
+      <c r="C19" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="12">
+        <f>SUM(D15:D18)</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="12">
+        <f>SUM(E15:E18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+    </row>
+    <row r="23" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+    </row>
+    <row r="24" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+    </row>
+    <row r="25" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="8"/>
+      <c r="C25" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="12">
+        <f>SUM(D21:D24)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="12">
+        <f>SUM(E21:E24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+    </row>
+    <row r="28" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+    </row>
+    <row r="29" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+    </row>
+    <row r="30" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+    </row>
+    <row r="31" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="8"/>
+      <c r="C31" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="12">
+        <f>SUM(D27:D30)</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="12">
+        <f>SUM(E27:E30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+    </row>
+    <row r="34" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+    </row>
+    <row r="35" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+    </row>
+    <row r="36" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+    </row>
+    <row r="37" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C37" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="12">
+        <f>SUM(D33:D36)</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="12">
+        <f>SUM(E33:E36)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC79DC0-DDD2-F44E-8246-72546F8171CA}">
+  <sheetPr>
+    <tabColor theme="7" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="B1:Q37"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.5" customWidth="1"/>
+    <col min="2" max="2" width="7.5" customWidth="1"/>
+    <col min="3" max="3" width="71.33203125" customWidth="1"/>
+    <col min="6" max="6" width="3.33203125" customWidth="1"/>
+    <col min="12" max="12" width="3.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="G3" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="14">
+        <f>D3</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="14">
+        <f>D4</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="14">
+        <f>D5</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="15">
+        <f>D6</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="14">
+        <f>E3</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="14">
+        <f>E4</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="14">
+        <f>E5</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="15">
+        <f>E6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="G4" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="14">
+        <f>D9</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="14">
+        <f>D10</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="14">
+        <f>D11</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="15">
+        <f>D12</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="14">
+        <f>E9</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="14">
+        <f>E10</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="14">
+        <f>E11</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="15">
+        <f>E12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="G5" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="14">
+        <f>D15</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="14">
+        <f>D16</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="14">
+        <f>D17</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="15">
+        <f>D18</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" s="14">
+        <f>E15</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="14">
+        <f>E16</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="14">
+        <f>E17</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="15">
+        <f>E18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="G6" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="14">
+        <f>D21</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="14">
+        <f>D22</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="14">
+        <f>D23</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="15">
+        <f>D24</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" s="14">
+        <f>E21</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="14">
+        <f>E22</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="14">
+        <f>E23</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="15">
+        <f>E24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="8"/>
+      <c r="C7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="12">
+        <f>SUM(D3:D6)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="12">
+        <f>SUM(E3:E6)</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="14">
+        <f>D27</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="14">
+        <f>D28</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="14">
+        <f>D29</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="15">
+        <f>D30</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" s="14">
+        <f>E27</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="14">
+        <f>E28</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="14">
+        <f>E29</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="15">
+        <f>E30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="14">
+        <f>D33</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="14">
+        <f>D34</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="14">
+        <f>D35</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="15">
+        <f>D36</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="N8" s="14">
+        <f>E33</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="14">
+        <f>E34</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="14">
+        <f>E35</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="15">
+        <f>E36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="G9" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="17">
+        <f>SUM(H3:H8)</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="17">
+        <f t="shared" ref="I9:K9" si="0">SUM(I3:I8)</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="N9" s="17">
+        <f>SUM(N3:N8)</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="17">
+        <f t="shared" ref="O9:Q9" si="1">SUM(O3:O8)</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="G10" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="20">
+        <f>H9/6</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="20">
+        <f t="shared" ref="I10:K10" si="2">I9/6</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="N10" s="20">
+        <f>N9/6</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="20">
+        <f t="shared" ref="O10:Q10" si="3">O9/6</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="8"/>
+      <c r="C13" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="12">
+        <f>SUM(D9:D12)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="12">
+        <f>SUM(E9:E12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="8"/>
+      <c r="C19" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="12">
+        <f>SUM(D15:D18)</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="12">
+        <f>SUM(E15:E18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+    </row>
+    <row r="23" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+    </row>
+    <row r="24" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+    </row>
+    <row r="25" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="8"/>
+      <c r="C25" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="12">
+        <f>SUM(D21:D24)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="12">
+        <f>SUM(E21:E24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+    </row>
+    <row r="28" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+    </row>
+    <row r="29" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+    </row>
+    <row r="30" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+    </row>
+    <row r="31" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="8"/>
+      <c r="C31" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="12">
+        <f>SUM(D27:D30)</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="12">
+        <f>SUM(E27:E30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+    </row>
+    <row r="34" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+    </row>
+    <row r="35" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+    </row>
+    <row r="36" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+    </row>
+    <row r="37" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C37" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="12">
+        <f>SUM(D33:D36)</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="12">
+        <f>SUM(E33:E36)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{004D7353-EE73-2D46-8E12-6FEAC7F1F09E}">
+  <sheetPr>
+    <tabColor theme="1"/>
+  </sheetPr>
+  <dimension ref="B1:Q37"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.5" customWidth="1"/>
+    <col min="2" max="2" width="7.5" customWidth="1"/>
+    <col min="3" max="3" width="71.33203125" customWidth="1"/>
+    <col min="6" max="6" width="3.33203125" customWidth="1"/>
+    <col min="12" max="12" width="3.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="9">
+        <f>SUM(Carley:Melissa!D3)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="9">
+        <f>SUM(Carley:Melissa!E3)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="14">
+        <f>D3</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="14">
+        <f>D4</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="14">
+        <f>D5</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="15">
+        <f>D6</f>
+        <v>10</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="14">
+        <f>E3</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="14">
+        <f>E4</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="14">
+        <f>E5</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="15">
+        <f>E6</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="10">
+        <f>SUM(Carley:Melissa!D4)</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="10">
+        <f>SUM(Carley:Melissa!E4)</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="14">
+        <f>D9</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="14">
+        <f>D10</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="14">
+        <f>D11</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="15">
+        <f>D12</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="14">
+        <f>E9</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="14">
+        <f>E10</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="14">
+        <f>E11</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="15">
+        <f>E12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="10">
+        <f>SUM(Carley:Melissa!D5)</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="10">
+        <f>SUM(Carley:Melissa!E5)</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="14">
+        <f>D15</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="14">
+        <f>D16</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="14">
+        <f>D17</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="15">
+        <f>D18</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" s="14">
+        <f>E15</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="14">
+        <f>E16</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="14">
+        <f>E17</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="15">
+        <f>E18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="10">
+        <f>SUM(Carley:Melissa!D6)</f>
+        <v>10</v>
+      </c>
+      <c r="E6" s="10">
+        <f>SUM(Carley:Melissa!E6)</f>
+        <v>10</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="14">
+        <f>D21</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="14">
+        <f>D22</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="14">
+        <f>D23</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="15">
+        <f>D24</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" s="14">
+        <f>E21</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="14">
+        <f>E22</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="14">
+        <f>E23</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="15">
+        <f>E24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="8"/>
+      <c r="C7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="12">
+        <f>SUM(D3:D6)</f>
+        <v>10</v>
+      </c>
+      <c r="E7" s="12">
+        <f>SUM(E3:E6)</f>
+        <v>10</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="14">
+        <f>D27</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="14">
+        <f>D28</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="14">
+        <f>D29</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="15">
+        <f>D30</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" s="14">
+        <f>E27</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="14">
+        <f>E28</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="14">
+        <f>E29</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="15">
+        <f>E30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="14">
+        <f>D33</f>
+        <v>30</v>
+      </c>
+      <c r="I8" s="14">
+        <f>D34</f>
+        <v>10</v>
+      </c>
+      <c r="J8" s="14">
+        <f>D35</f>
+        <v>20</v>
+      </c>
+      <c r="K8" s="15">
+        <f>D36</f>
+        <v>40</v>
+      </c>
+      <c r="M8" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="N8" s="14">
+        <f>E33</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="14">
+        <f>E34</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="14">
+        <f>E35</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="15">
+        <f>E36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="9">
+        <f>SUM(Carley:Melissa!D9)</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="9">
+        <f>SUM(Carley:Melissa!E9)</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="17">
+        <f>SUM(H3:H8)</f>
+        <v>30</v>
+      </c>
+      <c r="I9" s="17">
+        <f t="shared" ref="I9:K9" si="0">SUM(I3:I8)</f>
+        <v>10</v>
+      </c>
+      <c r="J9" s="17">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="K9" s="18">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="M9" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="N9" s="17">
+        <f>SUM(N3:N8)</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="17">
+        <f t="shared" ref="O9:Q9" si="1">SUM(O3:O8)</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="18">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="10">
+        <f>SUM(Carley:Melissa!D10)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="10">
+        <f>SUM(Carley:Melissa!E10)</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="20">
+        <f>H9/6</f>
+        <v>5</v>
+      </c>
+      <c r="I10" s="20">
+        <f t="shared" ref="I10:K10" si="2">I9/6</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="J10" s="20">
+        <f t="shared" si="2"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="K10" s="21">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="M10" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="N10" s="20">
+        <f>N9/6</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="20">
+        <f t="shared" ref="O10:Q10" si="3">O9/6</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="21">
+        <f t="shared" si="3"/>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="10">
+        <f>SUM(Carley:Melissa!D11)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="10">
+        <f>SUM(Carley:Melissa!E11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="10">
+        <f>SUM(Carley:Melissa!D12)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="10">
+        <f>SUM(Carley:Melissa!E12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="8"/>
+      <c r="C13" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="12">
+        <f>SUM(D9:D12)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="12">
+        <f>SUM(E9:E12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="9">
+        <f>SUM(Carley:Melissa!D15)</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="9">
+        <f>SUM(Carley:Melissa!E15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="10">
+        <f>SUM(Carley:Melissa!D16)</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="10">
+        <f>SUM(Carley:Melissa!E16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="10">
+        <f>SUM(Carley:Melissa!D17)</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="10">
+        <f>SUM(Carley:Melissa!E17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="10">
+        <f>SUM(Carley:Melissa!D18)</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="10">
+        <f>SUM(Carley:Melissa!E18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="8"/>
+      <c r="C19" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="12">
+        <f>SUM(D15:D18)</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="12">
+        <f>SUM(E15:E18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="9">
+        <f>SUM(Carley:Melissa!D21)</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="9">
+        <f>SUM(Carley:Melissa!E21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="10">
+        <f>SUM(Carley:Melissa!D22)</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="10">
+        <f>SUM(Carley:Melissa!E22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="10">
+        <f>SUM(Carley:Melissa!D23)</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="10">
+        <f>SUM(Carley:Melissa!E23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="10">
+        <f>SUM(Carley:Melissa!D24)</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="10">
+        <f>SUM(Carley:Melissa!E24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="8"/>
+      <c r="C25" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="12">
+        <f>SUM(D21:D24)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="12">
+        <f>SUM(E21:E24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="9">
+        <f>SUM(Carley:Melissa!D27)</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="9">
+        <f>SUM(Carley:Melissa!E27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="10">
+        <f>SUM(Carley:Melissa!D28)</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="10">
+        <f>SUM(Carley:Melissa!E28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="10">
+        <f>SUM(Carley:Melissa!D29)</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="10">
+        <f>SUM(Carley:Melissa!E29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="10">
+        <f>SUM(Carley:Melissa!D30)</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="10">
+        <f>SUM(Carley:Melissa!E30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="8"/>
+      <c r="C31" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="12">
+        <f>SUM(D27:D30)</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="12">
+        <f>SUM(E27:E30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="9">
+        <f>SUM(Carley:Melissa!D33)</f>
+        <v>30</v>
+      </c>
+      <c r="E33" s="9">
+        <f>SUM(Carley:Melissa!E33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="10">
+        <f>SUM(Carley:Melissa!D34)</f>
+        <v>10</v>
+      </c>
+      <c r="E34" s="10">
+        <f>SUM(Carley:Melissa!E34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="10">
+        <f>SUM(Carley:Melissa!D35)</f>
+        <v>20</v>
+      </c>
+      <c r="E35" s="10">
+        <f>SUM(Carley:Melissa!E35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="10">
+        <f>SUM(Carley:Melissa!D36)</f>
+        <v>40</v>
+      </c>
+      <c r="E36" s="10">
+        <f>SUM(Carley:Melissa!E36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C37" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="12">
+        <f>SUM(D33:D36)</f>
+        <v>100</v>
+      </c>
+      <c r="E37" s="12">
+        <f>SUM(E33:E36)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Assessment Tool.xlsx
+++ b/Assessment Tool.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cesar.macol/Desktop/Kelley/5 - 2nd Semester/2 - Data Visualization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AFF1A25-025A-6F4C-A91A-F8D74D58870E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34FB0A50-2EE8-7B49-B8CF-6A760AB33C29}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" activeTab="4" xr2:uid="{1C26146C-7F73-C846-9C53-63AA09B5F190}"/>
+    <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{1C26146C-7F73-C846-9C53-63AA09B5F190}"/>
   </bookViews>
   <sheets>
     <sheet name="Carley" sheetId="4" r:id="rId1"/>
@@ -823,7 +823,7 @@
   <dimension ref="B1:Q37"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1578,8 +1578,8 @@
   </sheetPr>
   <dimension ref="B1:Q37"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1642,41 +1642,45 @@
       <c r="C3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
+      <c r="D3" s="9">
+        <v>10</v>
+      </c>
+      <c r="E3" s="9">
+        <v>20</v>
+      </c>
       <c r="G3" s="22" t="s">
         <v>37</v>
       </c>
       <c r="H3" s="14">
         <f>D3</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I3" s="14">
         <f>D4</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J3" s="14">
         <f>D5</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K3" s="15">
         <f>D6</f>
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="M3" s="22" t="s">
         <v>37</v>
       </c>
       <c r="N3" s="14">
         <f>E3</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O3" s="14">
         <f>E4</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="P3" s="14">
         <f>E5</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="Q3" s="15">
         <f>E6</f>
@@ -1690,45 +1694,49 @@
       <c r="C4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
+      <c r="D4" s="10">
+        <v>5</v>
+      </c>
+      <c r="E4" s="10">
+        <v>35</v>
+      </c>
       <c r="G4" s="22" t="s">
         <v>38</v>
       </c>
       <c r="H4" s="14">
         <f>D9</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I4" s="14">
         <f>D10</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J4" s="14">
         <f>D11</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K4" s="15">
         <f>D12</f>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="M4" s="22" t="s">
         <v>38</v>
       </c>
       <c r="N4" s="14">
         <f>E9</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O4" s="14">
         <f>E10</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="P4" s="14">
         <f>E11</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q4" s="15">
         <f>E12</f>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -1738,45 +1746,49 @@
       <c r="C5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
+      <c r="D5" s="10">
+        <v>20</v>
+      </c>
+      <c r="E5" s="10">
+        <v>35</v>
+      </c>
       <c r="G5" s="22" t="s">
         <v>39</v>
       </c>
       <c r="H5" s="14">
         <f>D15</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I5" s="14">
         <f>D16</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J5" s="14">
         <f>D17</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K5" s="15">
         <f>D18</f>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="M5" s="22" t="s">
         <v>39</v>
       </c>
       <c r="N5" s="14">
         <f>E15</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="O5" s="14">
         <f>E16</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="P5" s="14">
         <f>E17</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Q5" s="15">
         <f>E18</f>
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -1787,7 +1799,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="10">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E6" s="10">
         <v>10</v>
@@ -1797,38 +1809,38 @@
       </c>
       <c r="H6" s="14">
         <f>D21</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I6" s="14">
         <f>D22</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J6" s="14">
         <f>D23</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K6" s="15">
         <f>D24</f>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="M6" s="22" t="s">
         <v>40</v>
       </c>
       <c r="N6" s="14">
         <f>E21</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O6" s="14">
         <f>E22</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="P6" s="14">
         <f>E23</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="15">
         <f>E24</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -1838,49 +1850,49 @@
       </c>
       <c r="D7" s="12">
         <f>SUM(D3:D6)</f>
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E7" s="12">
         <f>SUM(E3:E6)</f>
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G7" s="22" t="s">
         <v>41</v>
       </c>
       <c r="H7" s="14">
         <f>D27</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I7" s="14">
         <f>D28</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J7" s="14">
         <f>D29</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K7" s="15">
         <f>D30</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M7" s="22" t="s">
         <v>41</v>
       </c>
       <c r="N7" s="14">
         <f>E27</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O7" s="14">
         <f>E28</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P7" s="14">
         <f>E29</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Q7" s="15">
         <f>E30</f>
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1918,19 +1930,19 @@
       </c>
       <c r="N8" s="14">
         <f>E33</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O8" s="14">
         <f>E34</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="P8" s="14">
         <f>E35</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q8" s="15">
         <f>E36</f>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="2:17" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -1940,45 +1952,49 @@
       <c r="C9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+      <c r="D9" s="9">
+        <v>20</v>
+      </c>
+      <c r="E9" s="9">
+        <v>30</v>
+      </c>
       <c r="G9" s="16" t="s">
         <v>43</v>
       </c>
       <c r="H9" s="17">
         <f>SUM(H3:H8)</f>
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="I9" s="17">
         <f t="shared" ref="I9:K9" si="0">SUM(I3:I8)</f>
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="J9" s="17">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="K9" s="18">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>330</v>
       </c>
       <c r="M9" s="16" t="s">
         <v>43</v>
       </c>
       <c r="N9" s="17">
         <f>SUM(N3:N8)</f>
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="O9" s="17">
         <f t="shared" ref="O9" si="1">SUM(O3:O8)</f>
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="P9" s="17">
         <f t="shared" ref="P9" si="2">SUM(P3:P8)</f>
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="Q9" s="18">
         <f t="shared" ref="Q9" si="3">SUM(Q3:Q8)</f>
-        <v>10</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1988,45 +2004,49 @@
       <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
+      <c r="D10" s="10">
+        <v>10</v>
+      </c>
+      <c r="E10" s="10">
+        <v>30</v>
+      </c>
       <c r="G10" s="19" t="s">
         <v>44</v>
       </c>
       <c r="H10" s="20">
         <f>H9/6</f>
-        <v>5</v>
+        <v>22.5</v>
       </c>
       <c r="I10" s="20">
         <f t="shared" ref="I10:K10" si="4">I9/6</f>
-        <v>1.6666666666666667</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="J10" s="20">
         <f t="shared" si="4"/>
-        <v>3.3333333333333335</v>
+        <v>14.166666666666666</v>
       </c>
       <c r="K10" s="21">
         <f t="shared" si="4"/>
-        <v>8.3333333333333339</v>
+        <v>55</v>
       </c>
       <c r="M10" s="19" t="s">
         <v>44</v>
       </c>
       <c r="N10" s="20">
         <f>N9/6</f>
-        <v>0</v>
+        <v>27.5</v>
       </c>
       <c r="O10" s="20">
         <f t="shared" ref="O10" si="5">O9/6</f>
-        <v>0</v>
+        <v>28.333333333333332</v>
       </c>
       <c r="P10" s="20">
         <f t="shared" ref="P10" si="6">P9/6</f>
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="Q10" s="21">
         <f t="shared" ref="Q10" si="7">Q9/6</f>
-        <v>1.6666666666666667</v>
+        <v>21.666666666666668</v>
       </c>
     </row>
     <row r="11" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2036,8 +2056,12 @@
       <c r="C11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
+      <c r="D11" s="10">
+        <v>5</v>
+      </c>
+      <c r="E11" s="10">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
@@ -2046,8 +2070,12 @@
       <c r="C12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
+      <c r="D12" s="10">
+        <v>65</v>
+      </c>
+      <c r="E12" s="10">
+        <v>30</v>
+      </c>
     </row>
     <row r="13" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="8"/>
@@ -2056,11 +2084,11 @@
       </c>
       <c r="D13" s="12">
         <f>SUM(D9:D12)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E13" s="12">
         <f>SUM(E9:E12)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2082,8 +2110,12 @@
       <c r="C15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
+      <c r="D15" s="9">
+        <v>20</v>
+      </c>
+      <c r="E15" s="9">
+        <v>25</v>
+      </c>
     </row>
     <row r="16" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
@@ -2092,8 +2124,12 @@
       <c r="C16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
+      <c r="D16" s="10">
+        <v>5</v>
+      </c>
+      <c r="E16" s="10">
+        <v>25</v>
+      </c>
     </row>
     <row r="17" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
@@ -2102,8 +2138,12 @@
       <c r="C17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
+      <c r="D17" s="10">
+        <v>10</v>
+      </c>
+      <c r="E17" s="10">
+        <v>25</v>
+      </c>
     </row>
     <row r="18" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
@@ -2112,8 +2152,12 @@
       <c r="C18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
+      <c r="D18" s="10">
+        <v>65</v>
+      </c>
+      <c r="E18" s="10">
+        <v>25</v>
+      </c>
     </row>
     <row r="19" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="8"/>
@@ -2122,11 +2166,11 @@
       </c>
       <c r="D19" s="12">
         <f>SUM(D15:D18)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E19" s="12">
         <f>SUM(E15:E18)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2148,8 +2192,12 @@
       <c r="C21" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
+      <c r="D21" s="9">
+        <v>5</v>
+      </c>
+      <c r="E21" s="9">
+        <v>30</v>
+      </c>
     </row>
     <row r="22" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
@@ -2158,8 +2206,12 @@
       <c r="C22" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
+      <c r="D22" s="10">
+        <v>10</v>
+      </c>
+      <c r="E22" s="10">
+        <v>30</v>
+      </c>
     </row>
     <row r="23" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
@@ -2168,8 +2220,12 @@
       <c r="C23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
+      <c r="D23" s="10">
+        <v>20</v>
+      </c>
+      <c r="E23" s="10">
+        <v>30</v>
+      </c>
     </row>
     <row r="24" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
@@ -2178,8 +2234,12 @@
       <c r="C24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
+      <c r="D24" s="10">
+        <v>65</v>
+      </c>
+      <c r="E24" s="10">
+        <v>10</v>
+      </c>
     </row>
     <row r="25" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="8"/>
@@ -2188,11 +2248,11 @@
       </c>
       <c r="D25" s="12">
         <f>SUM(D21:D24)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E25" s="12">
         <f>SUM(E21:E24)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2214,8 +2274,12 @@
       <c r="C27" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
+      <c r="D27" s="9">
+        <v>50</v>
+      </c>
+      <c r="E27" s="9">
+        <v>30</v>
+      </c>
     </row>
     <row r="28" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
@@ -2224,8 +2288,12 @@
       <c r="C28" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
+      <c r="D28" s="10">
+        <v>10</v>
+      </c>
+      <c r="E28" s="10">
+        <v>20</v>
+      </c>
     </row>
     <row r="29" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
@@ -2234,8 +2302,12 @@
       <c r="C29" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
+      <c r="D29" s="10">
+        <v>10</v>
+      </c>
+      <c r="E29" s="10">
+        <v>25</v>
+      </c>
     </row>
     <row r="30" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
@@ -2244,8 +2316,12 @@
       <c r="C30" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
+      <c r="D30" s="10">
+        <v>30</v>
+      </c>
+      <c r="E30" s="10">
+        <v>25</v>
+      </c>
     </row>
     <row r="31" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="8"/>
@@ -2254,11 +2330,11 @@
       </c>
       <c r="D31" s="12">
         <f>SUM(D27:D30)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E31" s="12">
         <f>SUM(E27:E30)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2283,7 +2359,9 @@
       <c r="D33" s="9">
         <v>30</v>
       </c>
-      <c r="E33" s="9"/>
+      <c r="E33" s="9">
+        <v>30</v>
+      </c>
     </row>
     <row r="34" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
@@ -2295,7 +2373,9 @@
       <c r="D34" s="10">
         <v>10</v>
       </c>
-      <c r="E34" s="10"/>
+      <c r="E34" s="10">
+        <v>30</v>
+      </c>
     </row>
     <row r="35" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
@@ -2307,7 +2387,9 @@
       <c r="D35" s="10">
         <v>20</v>
       </c>
-      <c r="E35" s="10"/>
+      <c r="E35" s="10">
+        <v>10</v>
+      </c>
     </row>
     <row r="36" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
@@ -2319,7 +2401,9 @@
       <c r="D36" s="10">
         <v>40</v>
       </c>
-      <c r="E36" s="10"/>
+      <c r="E36" s="10">
+        <v>30</v>
+      </c>
     </row>
     <row r="37" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37" s="11" t="s">
@@ -2331,7 +2415,7 @@
       </c>
       <c r="E37" s="12">
         <f>SUM(E33:E36)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -3859,8 +3943,8 @@
   </sheetPr>
   <dimension ref="B1:Q37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3925,45 +4009,45 @@
       </c>
       <c r="D3" s="9">
         <f>SUM(Carley:Melissa!D3)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E3" s="9">
         <f>SUM(Carley:Melissa!E3)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G3" s="22" t="s">
         <v>37</v>
       </c>
       <c r="H3" s="14">
         <f>D3</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I3" s="14">
         <f>D4</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J3" s="14">
         <f>D5</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K3" s="15">
         <f>D6</f>
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="M3" s="22" t="s">
         <v>37</v>
       </c>
       <c r="N3" s="14">
         <f>E3</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O3" s="14">
         <f>E4</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="P3" s="14">
         <f>E5</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="Q3" s="15">
         <f>E6</f>
@@ -3979,49 +4063,49 @@
       </c>
       <c r="D4" s="10">
         <f>SUM(Carley:Melissa!D4)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E4" s="10">
         <f>SUM(Carley:Melissa!E4)</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G4" s="22" t="s">
         <v>38</v>
       </c>
       <c r="H4" s="14">
         <f>D9</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I4" s="14">
         <f>D10</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J4" s="14">
         <f>D11</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K4" s="15">
         <f>D12</f>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="M4" s="22" t="s">
         <v>38</v>
       </c>
       <c r="N4" s="14">
         <f>E9</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O4" s="14">
         <f>E10</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="P4" s="14">
         <f>E11</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q4" s="15">
         <f>E12</f>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4033,49 +4117,49 @@
       </c>
       <c r="D5" s="10">
         <f>SUM(Carley:Melissa!D5)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E5" s="10">
         <f>SUM(Carley:Melissa!E5)</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G5" s="22" t="s">
         <v>39</v>
       </c>
       <c r="H5" s="14">
         <f>D15</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I5" s="14">
         <f>D16</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J5" s="14">
         <f>D17</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K5" s="15">
         <f>D18</f>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="M5" s="22" t="s">
         <v>39</v>
       </c>
       <c r="N5" s="14">
         <f>E15</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="O5" s="14">
         <f>E16</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="P5" s="14">
         <f>E17</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Q5" s="15">
         <f>E18</f>
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4087,7 +4171,7 @@
       </c>
       <c r="D6" s="10">
         <f>SUM(Carley:Melissa!D6)</f>
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E6" s="10">
         <f>SUM(Carley:Melissa!E6)</f>
@@ -4098,38 +4182,38 @@
       </c>
       <c r="H6" s="14">
         <f>D21</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I6" s="14">
         <f>D22</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J6" s="14">
         <f>D23</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K6" s="15">
         <f>D24</f>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="M6" s="22" t="s">
         <v>40</v>
       </c>
       <c r="N6" s="14">
         <f>E21</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O6" s="14">
         <f>E22</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="P6" s="14">
         <f>E23</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="15">
         <f>E24</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4139,49 +4223,49 @@
       </c>
       <c r="D7" s="12">
         <f>SUM(D3:D6)</f>
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E7" s="12">
         <f>SUM(E3:E6)</f>
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G7" s="22" t="s">
         <v>41</v>
       </c>
       <c r="H7" s="14">
         <f>D27</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I7" s="14">
         <f>D28</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J7" s="14">
         <f>D29</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K7" s="15">
         <f>D30</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M7" s="22" t="s">
         <v>41</v>
       </c>
       <c r="N7" s="14">
         <f>E27</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O7" s="14">
         <f>E28</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P7" s="14">
         <f>E29</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Q7" s="15">
         <f>E30</f>
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4219,19 +4303,19 @@
       </c>
       <c r="N8" s="14">
         <f>E33</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O8" s="14">
         <f>E34</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="P8" s="14">
         <f>E35</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q8" s="15">
         <f>E36</f>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="2:17" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -4243,49 +4327,49 @@
       </c>
       <c r="D9" s="9">
         <f>SUM(Carley:Melissa!D9)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E9" s="9">
         <f>SUM(Carley:Melissa!E9)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G9" s="16" t="s">
         <v>43</v>
       </c>
       <c r="H9" s="17">
         <f>SUM(H3:H8)</f>
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="I9" s="17">
         <f t="shared" ref="I9:K9" si="0">SUM(I3:I8)</f>
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="J9" s="17">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="K9" s="18">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>330</v>
       </c>
       <c r="M9" s="16" t="s">
         <v>43</v>
       </c>
       <c r="N9" s="17">
         <f>SUM(N3:N8)</f>
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="O9" s="17">
         <f t="shared" ref="O9:Q9" si="1">SUM(O3:O8)</f>
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="P9" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="Q9" s="18">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4297,49 +4381,49 @@
       </c>
       <c r="D10" s="10">
         <f>SUM(Carley:Melissa!D10)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E10" s="10">
         <f>SUM(Carley:Melissa!E10)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G10" s="19" t="s">
         <v>44</v>
       </c>
       <c r="H10" s="20">
-        <f>H9/6</f>
-        <v>5</v>
+        <f>H9/24</f>
+        <v>5.625</v>
       </c>
       <c r="I10" s="20">
-        <f t="shared" ref="I10:K10" si="2">I9/6</f>
-        <v>1.6666666666666667</v>
+        <f t="shared" ref="I10:K10" si="2">I9/24</f>
+        <v>2.0833333333333335</v>
       </c>
       <c r="J10" s="20">
         <f t="shared" si="2"/>
-        <v>3.3333333333333335</v>
+        <v>3.5416666666666665</v>
       </c>
       <c r="K10" s="21">
         <f t="shared" si="2"/>
-        <v>8.3333333333333339</v>
+        <v>13.75</v>
       </c>
       <c r="M10" s="19" t="s">
         <v>44</v>
       </c>
       <c r="N10" s="20">
-        <f>N9/6</f>
-        <v>0</v>
+        <f t="shared" ref="N10:Q10" si="3">N9/24</f>
+        <v>6.875</v>
       </c>
       <c r="O10" s="20">
-        <f t="shared" ref="O10:Q10" si="3">O9/6</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>7.083333333333333</v>
       </c>
       <c r="P10" s="20">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.625</v>
       </c>
       <c r="Q10" s="21">
         <f t="shared" si="3"/>
-        <v>1.6666666666666667</v>
+        <v>5.416666666666667</v>
       </c>
     </row>
     <row r="11" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4351,11 +4435,11 @@
       </c>
       <c r="D11" s="10">
         <f>SUM(Carley:Melissa!D11)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E11" s="10">
         <f>SUM(Carley:Melissa!E11)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4367,11 +4451,11 @@
       </c>
       <c r="D12" s="10">
         <f>SUM(Carley:Melissa!D12)</f>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="E12" s="10">
         <f>SUM(Carley:Melissa!E12)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4381,11 +4465,11 @@
       </c>
       <c r="D13" s="12">
         <f>SUM(D9:D12)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E13" s="12">
         <f>SUM(E9:E12)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4409,11 +4493,11 @@
       </c>
       <c r="D15" s="9">
         <f>SUM(Carley:Melissa!D15)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E15" s="9">
         <f>SUM(Carley:Melissa!E15)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4425,11 +4509,11 @@
       </c>
       <c r="D16" s="10">
         <f>SUM(Carley:Melissa!D16)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E16" s="10">
         <f>SUM(Carley:Melissa!E16)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4441,11 +4525,11 @@
       </c>
       <c r="D17" s="10">
         <f>SUM(Carley:Melissa!D17)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E17" s="10">
         <f>SUM(Carley:Melissa!E17)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4457,11 +4541,11 @@
       </c>
       <c r="D18" s="10">
         <f>SUM(Carley:Melissa!D18)</f>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="E18" s="10">
         <f>SUM(Carley:Melissa!E18)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4471,11 +4555,11 @@
       </c>
       <c r="D19" s="12">
         <f>SUM(D15:D18)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E19" s="12">
         <f>SUM(E15:E18)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4499,11 +4583,11 @@
       </c>
       <c r="D21" s="9">
         <f>SUM(Carley:Melissa!D21)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E21" s="9">
         <f>SUM(Carley:Melissa!E21)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4515,11 +4599,11 @@
       </c>
       <c r="D22" s="10">
         <f>SUM(Carley:Melissa!D22)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E22" s="10">
         <f>SUM(Carley:Melissa!E22)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4531,11 +4615,11 @@
       </c>
       <c r="D23" s="10">
         <f>SUM(Carley:Melissa!D23)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E23" s="10">
         <f>SUM(Carley:Melissa!E23)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4547,11 +4631,11 @@
       </c>
       <c r="D24" s="10">
         <f>SUM(Carley:Melissa!D24)</f>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="E24" s="10">
         <f>SUM(Carley:Melissa!E24)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4561,11 +4645,11 @@
       </c>
       <c r="D25" s="12">
         <f>SUM(D21:D24)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E25" s="12">
         <f>SUM(E21:E24)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4589,11 +4673,11 @@
       </c>
       <c r="D27" s="9">
         <f>SUM(Carley:Melissa!D27)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E27" s="9">
         <f>SUM(Carley:Melissa!E27)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4605,11 +4689,11 @@
       </c>
       <c r="D28" s="10">
         <f>SUM(Carley:Melissa!D28)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E28" s="10">
         <f>SUM(Carley:Melissa!E28)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4621,11 +4705,11 @@
       </c>
       <c r="D29" s="10">
         <f>SUM(Carley:Melissa!D29)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E29" s="10">
         <f>SUM(Carley:Melissa!E29)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4637,11 +4721,11 @@
       </c>
       <c r="D30" s="10">
         <f>SUM(Carley:Melissa!D30)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E30" s="10">
         <f>SUM(Carley:Melissa!E30)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4651,11 +4735,11 @@
       </c>
       <c r="D31" s="12">
         <f>SUM(D27:D30)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E31" s="12">
         <f>SUM(E27:E30)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4683,7 +4767,7 @@
       </c>
       <c r="E33" s="9">
         <f>SUM(Carley:Melissa!E33)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4699,7 +4783,7 @@
       </c>
       <c r="E34" s="10">
         <f>SUM(Carley:Melissa!E34)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4715,7 +4799,7 @@
       </c>
       <c r="E35" s="10">
         <f>SUM(Carley:Melissa!E35)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4731,7 +4815,7 @@
       </c>
       <c r="E36" s="10">
         <f>SUM(Carley:Melissa!E36)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4744,7 +4828,7 @@
       </c>
       <c r="E37" s="12">
         <f>SUM(E33:E36)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Assessment Tool.xlsx
+++ b/Assessment Tool.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cesar.macol/Desktop/Kelley/5 - 2nd Semester/2 - Data Visualization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34FB0A50-2EE8-7B49-B8CF-6A760AB33C29}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71ED668F-2A8C-3D4D-BEFD-A821E3DA77BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{1C26146C-7F73-C846-9C53-63AA09B5F190}"/>
+    <workbookView xWindow="38040" yWindow="0" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{1C26146C-7F73-C846-9C53-63AA09B5F190}"/>
   </bookViews>
   <sheets>
     <sheet name="Carley" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Melissa" sheetId="2" r:id="rId4"/>
     <sheet name="Consolidated" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="49">
   <si>
     <t>A</t>
   </si>
@@ -184,6 +184,12 @@
   <si>
     <t>PREFERRED</t>
   </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
 </sst>
 </file>
 
@@ -227,7 +233,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -246,8 +252,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -425,11 +443,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -502,6 +557,40 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1278,8 +1367,47 @@
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G11" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="30">
+        <f>200-(150*(H10/100))</f>
+        <v>200</v>
+      </c>
+      <c r="I11" s="30">
+        <f>200+(150*(I10/100))</f>
+        <v>200</v>
+      </c>
+      <c r="J11" s="30">
+        <f>200+(150*(J10/100))</f>
+        <v>200</v>
+      </c>
+      <c r="K11" s="31">
+        <f t="shared" ref="K11" si="4">200-(150*(K10/100))</f>
+        <v>200</v>
+      </c>
+      <c r="L11" s="32"/>
+      <c r="M11" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="N11" s="30">
+        <f>200-(150*(N10/100))</f>
+        <v>200</v>
+      </c>
+      <c r="O11" s="30">
+        <f>200+(150*(O10/100))</f>
+        <v>200</v>
+      </c>
+      <c r="P11" s="30">
+        <f>200+(150*(P10/100))</f>
+        <v>200</v>
+      </c>
+      <c r="Q11" s="31">
+        <f t="shared" ref="Q11" si="5">200-(150*(Q10/100))</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
@@ -1288,8 +1416,47 @@
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G12" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="34">
+        <f>200-(150*(H10/100))</f>
+        <v>200</v>
+      </c>
+      <c r="I12" s="34">
+        <f t="shared" ref="I12:K12" si="6">200-(150*(I10/100))</f>
+        <v>200</v>
+      </c>
+      <c r="J12" s="34">
+        <f>200+(150*(J10/100))</f>
+        <v>200</v>
+      </c>
+      <c r="K12" s="35">
+        <f>200+(150*(K10/100))</f>
+        <v>200</v>
+      </c>
+      <c r="L12" s="32"/>
+      <c r="M12" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="N12" s="34">
+        <f>200-(150*(N10/100))</f>
+        <v>200</v>
+      </c>
+      <c r="O12" s="34">
+        <f t="shared" ref="O12:Q12" si="7">200-(150*(O10/100))</f>
+        <v>200</v>
+      </c>
+      <c r="P12" s="34">
+        <f>200+(150*(P10/100))</f>
+        <v>200</v>
+      </c>
+      <c r="Q12" s="35">
+        <f>200+(150*(Q10/100))</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="8"/>
       <c r="C13" s="11" t="s">
         <v>36</v>
@@ -1302,6 +1469,22 @@
         <f>SUM(E9:E12)</f>
         <v>0</v>
       </c>
+      <c r="G13" s="27" t="str">
+        <f>_xlfn.CONCAT("&lt;polygon points=",CHAR(34),INT(H11),",",INT(H12)," ",INT(I11),",",INT(I12)," ",INT(J11),",",INT(J12)," ",INT(K11),",",INT(K12),CHAR(34),"/&gt;")</f>
+        <v>&lt;polygon points="200,200 200,200 200,200 200,200"/&gt;</v>
+      </c>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="29"/>
+      <c r="M13" s="27" t="str">
+        <f>_xlfn.CONCAT("&lt;polygon points=",CHAR(34),INT(N11),",",INT(N12)," ",INT(O11),",",INT(O12)," ",INT(P11),",",INT(P12)," ",INT(Q11),",",INT(Q12),CHAR(34),"/&gt;")</f>
+        <v>&lt;polygon points="200,200 200,200 200,200 200,200"/&gt;</v>
+      </c>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="29"/>
     </row>
     <row r="14" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
@@ -1567,6 +1750,10 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="M13:Q13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1589,6 +1776,7 @@
     <col min="3" max="3" width="71.33203125" customWidth="1"/>
     <col min="6" max="6" width="3.33203125" customWidth="1"/>
     <col min="12" max="12" width="3.33203125" customWidth="1"/>
+    <col min="18" max="18" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -2062,8 +2250,47 @@
       <c r="E11" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G11" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="30">
+        <f>200-(150*(H10/100))</f>
+        <v>166.25</v>
+      </c>
+      <c r="I11" s="30">
+        <f>200+(150*(I10/100))</f>
+        <v>212.5</v>
+      </c>
+      <c r="J11" s="30">
+        <f>200+(150*(J10/100))</f>
+        <v>221.25</v>
+      </c>
+      <c r="K11" s="31">
+        <f t="shared" ref="I11:K11" si="8">200-(150*(K10/100))</f>
+        <v>117.5</v>
+      </c>
+      <c r="L11" s="32"/>
+      <c r="M11" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="N11" s="30">
+        <f>200-(150*(N10/100))</f>
+        <v>158.75</v>
+      </c>
+      <c r="O11" s="30">
+        <f>200+(150*(O10/100))</f>
+        <v>242.5</v>
+      </c>
+      <c r="P11" s="30">
+        <f>200+(150*(P10/100))</f>
+        <v>233.75</v>
+      </c>
+      <c r="Q11" s="31">
+        <f t="shared" ref="Q11" si="9">200-(150*(Q10/100))</f>
+        <v>167.5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
@@ -2076,8 +2303,47 @@
       <c r="E12" s="10">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G12" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="34">
+        <f>200-(150*(H10/100))</f>
+        <v>166.25</v>
+      </c>
+      <c r="I12" s="34">
+        <f t="shared" ref="I12:K12" si="10">200-(150*(I10/100))</f>
+        <v>187.5</v>
+      </c>
+      <c r="J12" s="34">
+        <f>200+(150*(J10/100))</f>
+        <v>221.25</v>
+      </c>
+      <c r="K12" s="35">
+        <f>200+(150*(K10/100))</f>
+        <v>282.5</v>
+      </c>
+      <c r="L12" s="32"/>
+      <c r="M12" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="N12" s="34">
+        <f>200-(150*(N10/100))</f>
+        <v>158.75</v>
+      </c>
+      <c r="O12" s="34">
+        <f t="shared" ref="O12:Q12" si="11">200-(150*(O10/100))</f>
+        <v>157.5</v>
+      </c>
+      <c r="P12" s="34">
+        <f>200+(150*(P10/100))</f>
+        <v>233.75</v>
+      </c>
+      <c r="Q12" s="35">
+        <f>200+(150*(Q10/100))</f>
+        <v>232.5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="8"/>
       <c r="C13" s="11" t="s">
         <v>36</v>
@@ -2090,6 +2356,22 @@
         <f>SUM(E9:E12)</f>
         <v>100</v>
       </c>
+      <c r="G13" s="27" t="str">
+        <f>_xlfn.CONCAT("&lt;polygon points=",CHAR(34),INT(H11),",",INT(H12)," ",INT(I11),",",INT(I12)," ",INT(J11),",",INT(J12)," ",INT(K11),",",INT(K12),CHAR(34),"/&gt;")</f>
+        <v>&lt;polygon points="166,166 212,187 221,221 117,282"/&gt;</v>
+      </c>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="29"/>
+      <c r="M13" s="27" t="str">
+        <f>_xlfn.CONCAT("&lt;polygon points=",CHAR(34),INT(N11),",",INT(N12)," ",INT(O11),",",INT(O12)," ",INT(P11),",",INT(P12)," ",INT(Q11),",",INT(Q12),CHAR(34),"/&gt;")</f>
+        <v>&lt;polygon points="158,158 242,157 233,233 167,232"/&gt;</v>
+      </c>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="29"/>
     </row>
     <row r="14" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
@@ -2419,8 +2701,13 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="M13:Q13"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -2887,8 +3174,47 @@
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G11" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="30">
+        <f>200-(150*(H10/100))</f>
+        <v>200</v>
+      </c>
+      <c r="I11" s="30">
+        <f>200+(150*(I10/100))</f>
+        <v>200</v>
+      </c>
+      <c r="J11" s="30">
+        <f>200+(150*(J10/100))</f>
+        <v>200</v>
+      </c>
+      <c r="K11" s="31">
+        <f t="shared" ref="K11" si="4">200-(150*(K10/100))</f>
+        <v>200</v>
+      </c>
+      <c r="L11" s="32"/>
+      <c r="M11" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="N11" s="30">
+        <f>200-(150*(N10/100))</f>
+        <v>200</v>
+      </c>
+      <c r="O11" s="30">
+        <f>200+(150*(O10/100))</f>
+        <v>200</v>
+      </c>
+      <c r="P11" s="30">
+        <f>200+(150*(P10/100))</f>
+        <v>200</v>
+      </c>
+      <c r="Q11" s="31">
+        <f t="shared" ref="Q11" si="5">200-(150*(Q10/100))</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
@@ -2897,8 +3223,47 @@
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G12" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="34">
+        <f>200-(150*(H10/100))</f>
+        <v>200</v>
+      </c>
+      <c r="I12" s="34">
+        <f t="shared" ref="I12:K12" si="6">200-(150*(I10/100))</f>
+        <v>200</v>
+      </c>
+      <c r="J12" s="34">
+        <f>200+(150*(J10/100))</f>
+        <v>200</v>
+      </c>
+      <c r="K12" s="35">
+        <f>200+(150*(K10/100))</f>
+        <v>200</v>
+      </c>
+      <c r="L12" s="32"/>
+      <c r="M12" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="N12" s="34">
+        <f>200-(150*(N10/100))</f>
+        <v>200</v>
+      </c>
+      <c r="O12" s="34">
+        <f t="shared" ref="O12:Q12" si="7">200-(150*(O10/100))</f>
+        <v>200</v>
+      </c>
+      <c r="P12" s="34">
+        <f>200+(150*(P10/100))</f>
+        <v>200</v>
+      </c>
+      <c r="Q12" s="35">
+        <f>200+(150*(Q10/100))</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="8"/>
       <c r="C13" s="11" t="s">
         <v>36</v>
@@ -2911,6 +3276,22 @@
         <f>SUM(E9:E12)</f>
         <v>0</v>
       </c>
+      <c r="G13" s="27" t="str">
+        <f>_xlfn.CONCAT("&lt;polygon points=",CHAR(34),INT(H11),",",INT(H12)," ",INT(I11),",",INT(I12)," ",INT(J11),",",INT(J12)," ",INT(K11),",",INT(K12),CHAR(34),"/&gt;")</f>
+        <v>&lt;polygon points="200,200 200,200 200,200 200,200"/&gt;</v>
+      </c>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="29"/>
+      <c r="M13" s="27" t="str">
+        <f>_xlfn.CONCAT("&lt;polygon points=",CHAR(34),INT(N11),",",INT(N12)," ",INT(O11),",",INT(O12)," ",INT(P11),",",INT(P12)," ",INT(Q11),",",INT(Q12),CHAR(34),"/&gt;")</f>
+        <v>&lt;polygon points="200,200 200,200 200,200 200,200"/&gt;</v>
+      </c>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="29"/>
     </row>
     <row r="14" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
@@ -3176,6 +3557,10 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="M13:Q13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3643,8 +4028,47 @@
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G11" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="30">
+        <f>200-(150*(H10/100))</f>
+        <v>200</v>
+      </c>
+      <c r="I11" s="30">
+        <f>200+(150*(I10/100))</f>
+        <v>200</v>
+      </c>
+      <c r="J11" s="30">
+        <f>200+(150*(J10/100))</f>
+        <v>200</v>
+      </c>
+      <c r="K11" s="31">
+        <f t="shared" ref="K11" si="4">200-(150*(K10/100))</f>
+        <v>200</v>
+      </c>
+      <c r="L11" s="32"/>
+      <c r="M11" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="N11" s="30">
+        <f>200-(150*(N10/100))</f>
+        <v>200</v>
+      </c>
+      <c r="O11" s="30">
+        <f>200+(150*(O10/100))</f>
+        <v>200</v>
+      </c>
+      <c r="P11" s="30">
+        <f>200+(150*(P10/100))</f>
+        <v>200</v>
+      </c>
+      <c r="Q11" s="31">
+        <f t="shared" ref="Q11" si="5">200-(150*(Q10/100))</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
@@ -3653,8 +4077,47 @@
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G12" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="34">
+        <f>200-(150*(H10/100))</f>
+        <v>200</v>
+      </c>
+      <c r="I12" s="34">
+        <f t="shared" ref="I12:K12" si="6">200-(150*(I10/100))</f>
+        <v>200</v>
+      </c>
+      <c r="J12" s="34">
+        <f>200+(150*(J10/100))</f>
+        <v>200</v>
+      </c>
+      <c r="K12" s="35">
+        <f>200+(150*(K10/100))</f>
+        <v>200</v>
+      </c>
+      <c r="L12" s="32"/>
+      <c r="M12" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="N12" s="34">
+        <f>200-(150*(N10/100))</f>
+        <v>200</v>
+      </c>
+      <c r="O12" s="34">
+        <f t="shared" ref="O12:Q12" si="7">200-(150*(O10/100))</f>
+        <v>200</v>
+      </c>
+      <c r="P12" s="34">
+        <f>200+(150*(P10/100))</f>
+        <v>200</v>
+      </c>
+      <c r="Q12" s="35">
+        <f>200+(150*(Q10/100))</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="8"/>
       <c r="C13" s="11" t="s">
         <v>36</v>
@@ -3667,6 +4130,22 @@
         <f>SUM(E9:E12)</f>
         <v>0</v>
       </c>
+      <c r="G13" s="27" t="str">
+        <f>_xlfn.CONCAT("&lt;polygon points=",CHAR(34),INT(H11),",",INT(H12)," ",INT(I11),",",INT(I12)," ",INT(J11),",",INT(J12)," ",INT(K11),",",INT(K12),CHAR(34),"/&gt;")</f>
+        <v>&lt;polygon points="200,200 200,200 200,200 200,200"/&gt;</v>
+      </c>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="29"/>
+      <c r="M13" s="27" t="str">
+        <f>_xlfn.CONCAT("&lt;polygon points=",CHAR(34),INT(N11),",",INT(N12)," ",INT(O11),",",INT(O12)," ",INT(P11),",",INT(P12)," ",INT(Q11),",",INT(Q12),CHAR(34),"/&gt;")</f>
+        <v>&lt;polygon points="200,200 200,200 200,200 200,200"/&gt;</v>
+      </c>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="29"/>
     </row>
     <row r="14" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
@@ -3932,6 +4411,10 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="M13:Q13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3944,7 +4427,7 @@
   <dimension ref="B1:Q37"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4441,8 +4924,47 @@
         <f>SUM(Carley:Melissa!E11)</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G11" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="30">
+        <f>200-(150*(H10/100))</f>
+        <v>191.5625</v>
+      </c>
+      <c r="I11" s="30">
+        <f>200+(150*(I10/100))</f>
+        <v>203.125</v>
+      </c>
+      <c r="J11" s="30">
+        <f>200+(150*(J10/100))</f>
+        <v>205.3125</v>
+      </c>
+      <c r="K11" s="31">
+        <f t="shared" ref="K11" si="4">200-(150*(K10/100))</f>
+        <v>179.375</v>
+      </c>
+      <c r="L11" s="32"/>
+      <c r="M11" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="N11" s="30">
+        <f>200-(150*(N10/100))</f>
+        <v>189.6875</v>
+      </c>
+      <c r="O11" s="30">
+        <f>200+(150*(O10/100))</f>
+        <v>210.625</v>
+      </c>
+      <c r="P11" s="30">
+        <f>200+(150*(P10/100))</f>
+        <v>208.4375</v>
+      </c>
+      <c r="Q11" s="31">
+        <f t="shared" ref="Q11" si="5">200-(150*(Q10/100))</f>
+        <v>191.875</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
@@ -4457,8 +4979,47 @@
         <f>SUM(Carley:Melissa!E12)</f>
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G12" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="34">
+        <f>200-(150*(H10/100))</f>
+        <v>191.5625</v>
+      </c>
+      <c r="I12" s="34">
+        <f t="shared" ref="I12:K12" si="6">200-(150*(I10/100))</f>
+        <v>196.875</v>
+      </c>
+      <c r="J12" s="34">
+        <f>200+(150*(J10/100))</f>
+        <v>205.3125</v>
+      </c>
+      <c r="K12" s="35">
+        <f>200+(150*(K10/100))</f>
+        <v>220.625</v>
+      </c>
+      <c r="L12" s="32"/>
+      <c r="M12" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="N12" s="34">
+        <f>200-(150*(N10/100))</f>
+        <v>189.6875</v>
+      </c>
+      <c r="O12" s="34">
+        <f t="shared" ref="O12:Q12" si="7">200-(150*(O10/100))</f>
+        <v>189.375</v>
+      </c>
+      <c r="P12" s="34">
+        <f>200+(150*(P10/100))</f>
+        <v>208.4375</v>
+      </c>
+      <c r="Q12" s="35">
+        <f>200+(150*(Q10/100))</f>
+        <v>208.125</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="8"/>
       <c r="C13" s="11" t="s">
         <v>36</v>
@@ -4471,6 +5032,22 @@
         <f>SUM(E9:E12)</f>
         <v>100</v>
       </c>
+      <c r="G13" s="27" t="str">
+        <f>_xlfn.CONCAT("&lt;polygon points=",CHAR(34),INT(H11),",",INT(H12)," ",INT(I11),",",INT(I12)," ",INT(J11),",",INT(J12)," ",INT(K11),",",INT(K12),CHAR(34),"/&gt;")</f>
+        <v>&lt;polygon points="191,191 203,196 205,205 179,220"/&gt;</v>
+      </c>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="29"/>
+      <c r="M13" s="27" t="str">
+        <f>_xlfn.CONCAT("&lt;polygon points=",CHAR(34),INT(N11),",",INT(N12)," ",INT(O11),",",INT(O12)," ",INT(P11),",",INT(P12)," ",INT(Q11),",",INT(Q12),CHAR(34),"/&gt;")</f>
+        <v>&lt;polygon points="189,189 210,189 208,208 191,208"/&gt;</v>
+      </c>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="29"/>
     </row>
     <row r="14" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
@@ -4832,6 +5409,10 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="M13:Q13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Assessment Tool.xlsx
+++ b/Assessment Tool.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cesar.macol/Desktop/Kelley/5 - 2nd Semester/2 - Data Visualization/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carle\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71ED668F-2A8C-3D4D-BEFD-A821E3DA77BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{349A8E7F-C76A-41F6-8BE0-E0DA36A4F303}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38040" yWindow="0" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{1C26146C-7F73-C846-9C53-63AA09B5F190}"/>
+    <workbookView xWindow="-19000" yWindow="270" windowWidth="17760" windowHeight="10200" xr2:uid="{1C26146C-7F73-C846-9C53-63AA09B5F190}"/>
   </bookViews>
   <sheets>
     <sheet name="Carley" sheetId="4" r:id="rId1"/>
@@ -564,15 +564,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -591,6 +582,15 @@
     </xf>
     <xf numFmtId="1" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -911,11 +911,11 @@
   </sheetPr>
   <dimension ref="B1:Q37"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D6" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13:K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2.5" customWidth="1"/>
     <col min="2" max="2" width="7.5" customWidth="1"/>
@@ -924,8 +924,8 @@
     <col min="12" max="12" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:17" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
@@ -968,188 +968,204 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:17" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:17" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
+      <c r="D3" s="9">
+        <v>10</v>
+      </c>
+      <c r="E3" s="9">
+        <v>25</v>
+      </c>
       <c r="G3" s="22" t="s">
         <v>37</v>
       </c>
       <c r="H3" s="14">
         <f>D3</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I3" s="14">
         <f>D4</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J3" s="14">
         <f>D5</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="K3" s="15">
         <f>D6</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M3" s="22" t="s">
         <v>37</v>
       </c>
       <c r="N3" s="14">
         <f>E3</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="O3" s="14">
         <f>E4</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="P3" s="14">
         <f>E5</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q3" s="15">
         <f>E6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
+      <c r="D4" s="10">
+        <v>15</v>
+      </c>
+      <c r="E4" s="10">
+        <v>45</v>
+      </c>
       <c r="G4" s="22" t="s">
         <v>38</v>
       </c>
       <c r="H4" s="14">
         <f>D9</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I4" s="14">
         <f>D10</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J4" s="14">
         <f>D11</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K4" s="15">
         <f>D12</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="M4" s="22" t="s">
         <v>38</v>
       </c>
       <c r="N4" s="14">
         <f>E9</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="O4" s="14">
         <f>E10</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="P4" s="14">
         <f>E11</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q4" s="15">
         <f>E12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
+      <c r="D5" s="10">
+        <v>45</v>
+      </c>
+      <c r="E5" s="10">
+        <v>20</v>
+      </c>
       <c r="G5" s="22" t="s">
         <v>39</v>
       </c>
       <c r="H5" s="14">
         <f>D15</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I5" s="14">
         <f>D16</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J5" s="14">
         <f>D17</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K5" s="15">
         <f>D18</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M5" s="22" t="s">
         <v>39</v>
       </c>
       <c r="N5" s="14">
         <f>E15</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="O5" s="14">
         <f>E16</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="P5" s="14">
         <f>E17</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q5" s="15">
         <f>E18</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
+      <c r="D6" s="10">
+        <v>30</v>
+      </c>
+      <c r="E6" s="10">
+        <v>10</v>
+      </c>
       <c r="G6" s="22" t="s">
         <v>40</v>
       </c>
       <c r="H6" s="14">
         <f>D21</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I6" s="14">
         <f>D22</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J6" s="14">
         <f>D23</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="K6" s="15">
         <f>D24</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="M6" s="22" t="s">
         <v>40</v>
       </c>
       <c r="N6" s="14">
         <f>E21</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O6" s="14">
         <f>E22</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="P6" s="14">
         <f>E23</f>
@@ -1157,62 +1173,62 @@
       </c>
       <c r="Q6" s="15">
         <f>E24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="8"/>
       <c r="C7" s="11" t="s">
         <v>36</v>
       </c>
       <c r="D7" s="12">
         <f>SUM(D3:D6)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E7" s="12">
         <f>SUM(E3:E6)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G7" s="22" t="s">
         <v>41</v>
       </c>
       <c r="H7" s="14">
         <f>D27</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I7" s="14">
         <f>D28</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J7" s="14">
         <f>D29</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K7" s="15">
         <f>D30</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="M7" s="22" t="s">
         <v>41</v>
       </c>
       <c r="N7" s="14">
         <f>E27</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O7" s="14">
         <f>E28</f>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="P7" s="14">
         <f>E29</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q7" s="15">
         <f>E30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="6" t="s">
         <v>19</v>
       </c>
@@ -1228,30 +1244,30 @@
       </c>
       <c r="H8" s="14">
         <f>D33</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I8" s="14">
         <f>D34</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J8" s="14">
         <f>D35</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="K8" s="15">
         <f>D36</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M8" s="22" t="s">
         <v>42</v>
       </c>
       <c r="N8" s="14">
         <f>E33</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="O8" s="14">
         <f>E34</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="P8" s="14">
         <f>E35</f>
@@ -1259,234 +1275,250 @@
       </c>
       <c r="Q8" s="15">
         <f>E36</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+      <c r="D9" s="9">
+        <v>15</v>
+      </c>
+      <c r="E9" s="9">
+        <v>40</v>
+      </c>
       <c r="G9" s="16" t="s">
         <v>43</v>
       </c>
       <c r="H9" s="17">
         <f>SUM(H3:H8)</f>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="I9" s="17">
         <f t="shared" ref="I9:K9" si="0">SUM(I3:I8)</f>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="J9" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K9" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="M9" s="16" t="s">
         <v>43</v>
       </c>
       <c r="N9" s="17">
         <f>SUM(N3:N8)</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O9" s="17">
         <f t="shared" ref="O9:Q9" si="1">SUM(O3:O8)</f>
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="P9" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Q9" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
+      <c r="D10" s="10">
+        <v>15</v>
+      </c>
+      <c r="E10" s="10">
+        <v>30</v>
+      </c>
       <c r="G10" s="19" t="s">
         <v>44</v>
       </c>
       <c r="H10" s="20">
         <f>H9/6</f>
-        <v>0</v>
+        <v>14.166666666666666</v>
       </c>
       <c r="I10" s="20">
         <f t="shared" ref="I10:K10" si="2">I9/6</f>
-        <v>0</v>
+        <v>15.833333333333334</v>
       </c>
       <c r="J10" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="K10" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>36.666666666666664</v>
       </c>
       <c r="M10" s="19" t="s">
         <v>44</v>
       </c>
       <c r="N10" s="20">
         <f>N9/6</f>
-        <v>0</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="O10" s="20">
         <f t="shared" ref="O10:Q10" si="3">O9/6</f>
-        <v>0</v>
+        <v>43.333333333333336</v>
       </c>
       <c r="P10" s="20">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="Q10" s="21">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+        <v>16.666666666666668</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
+      <c r="D11" s="10">
+        <v>25</v>
+      </c>
+      <c r="E11" s="10">
+        <v>5</v>
+      </c>
       <c r="G11" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11" s="27">
         <f>200-(150*(H10/100))</f>
-        <v>200</v>
-      </c>
-      <c r="I11" s="30">
+        <v>178.75</v>
+      </c>
+      <c r="I11" s="27">
         <f>200+(150*(I10/100))</f>
-        <v>200</v>
-      </c>
-      <c r="J11" s="30">
+        <v>223.75</v>
+      </c>
+      <c r="J11" s="27">
         <f>200+(150*(J10/100))</f>
-        <v>200</v>
-      </c>
-      <c r="K11" s="31">
+        <v>250</v>
+      </c>
+      <c r="K11" s="28">
         <f t="shared" ref="K11" si="4">200-(150*(K10/100))</f>
-        <v>200</v>
-      </c>
-      <c r="L11" s="32"/>
-      <c r="M11" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="L11" s="29"/>
+      <c r="M11" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="N11" s="30">
+      <c r="N11" s="27">
         <f>200-(150*(N10/100))</f>
-        <v>200</v>
-      </c>
-      <c r="O11" s="30">
+        <v>150</v>
+      </c>
+      <c r="O11" s="27">
         <f>200+(150*(O10/100))</f>
-        <v>200</v>
-      </c>
-      <c r="P11" s="30">
+        <v>265</v>
+      </c>
+      <c r="P11" s="27">
         <f>200+(150*(P10/100))</f>
-        <v>200</v>
-      </c>
-      <c r="Q11" s="31">
+        <v>210</v>
+      </c>
+      <c r="Q11" s="28">
         <f t="shared" ref="Q11" si="5">200-(150*(Q10/100))</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
+      <c r="D12" s="10">
+        <v>45</v>
+      </c>
+      <c r="E12" s="10">
+        <v>25</v>
+      </c>
       <c r="G12" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="H12" s="34">
+      <c r="H12" s="31">
         <f>200-(150*(H10/100))</f>
-        <v>200</v>
-      </c>
-      <c r="I12" s="34">
-        <f t="shared" ref="I12:K12" si="6">200-(150*(I10/100))</f>
-        <v>200</v>
-      </c>
-      <c r="J12" s="34">
+        <v>178.75</v>
+      </c>
+      <c r="I12" s="31">
+        <f t="shared" ref="I12" si="6">200-(150*(I10/100))</f>
+        <v>176.25</v>
+      </c>
+      <c r="J12" s="31">
         <f>200+(150*(J10/100))</f>
-        <v>200</v>
-      </c>
-      <c r="K12" s="35">
+        <v>250</v>
+      </c>
+      <c r="K12" s="32">
         <f>200+(150*(K10/100))</f>
-        <v>200</v>
-      </c>
-      <c r="L12" s="32"/>
-      <c r="M12" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="L12" s="29"/>
+      <c r="M12" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="N12" s="34">
+      <c r="N12" s="31">
         <f>200-(150*(N10/100))</f>
-        <v>200</v>
-      </c>
-      <c r="O12" s="34">
-        <f t="shared" ref="O12:Q12" si="7">200-(150*(O10/100))</f>
-        <v>200</v>
-      </c>
-      <c r="P12" s="34">
+        <v>150</v>
+      </c>
+      <c r="O12" s="31">
+        <f t="shared" ref="O12" si="7">200-(150*(O10/100))</f>
+        <v>135</v>
+      </c>
+      <c r="P12" s="31">
         <f>200+(150*(P10/100))</f>
-        <v>200</v>
-      </c>
-      <c r="Q12" s="35">
+        <v>210</v>
+      </c>
+      <c r="Q12" s="32">
         <f>200+(150*(Q10/100))</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="8"/>
       <c r="C13" s="11" t="s">
         <v>36</v>
       </c>
       <c r="D13" s="12">
         <f>SUM(D9:D12)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E13" s="12">
         <f>SUM(E9:E12)</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="27" t="str">
+        <v>100</v>
+      </c>
+      <c r="G13" s="34" t="str">
         <f>_xlfn.CONCAT("&lt;polygon points=",CHAR(34),INT(H11),",",INT(H12)," ",INT(I11),",",INT(I12)," ",INT(J11),",",INT(J12)," ",INT(K11),",",INT(K12),CHAR(34),"/&gt;")</f>
-        <v>&lt;polygon points="200,200 200,200 200,200 200,200"/&gt;</v>
-      </c>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="29"/>
-      <c r="M13" s="27" t="str">
+        <v>&lt;polygon points="178,178 223,176 250,250 145,255"/&gt;</v>
+      </c>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="36"/>
+      <c r="M13" s="34" t="str">
         <f>_xlfn.CONCAT("&lt;polygon points=",CHAR(34),INT(N11),",",INT(N12)," ",INT(O11),",",INT(O12)," ",INT(P11),",",INT(P12)," ",INT(Q11),",",INT(Q12),CHAR(34),"/&gt;")</f>
-        <v>&lt;polygon points="200,200 200,200 200,200 200,200"/&gt;</v>
-      </c>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="29"/>
-    </row>
-    <row r="14" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>&lt;polygon points="150,150 265,135 210,210 175,225"/&gt;</v>
+      </c>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="36"/>
+    </row>
+    <row r="14" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="6" t="s">
         <v>20</v>
       </c>
@@ -1498,61 +1530,77 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="2:17" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:17" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D15" s="9">
+        <v>25</v>
+      </c>
+      <c r="E15" s="9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-    </row>
-    <row r="17" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D16" s="10">
+        <v>5</v>
+      </c>
+      <c r="E16" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-    </row>
-    <row r="18" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D17" s="10">
+        <v>20</v>
+      </c>
+      <c r="E17" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-    </row>
-    <row r="19" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D18" s="10">
+        <v>50</v>
+      </c>
+      <c r="E18" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="8"/>
       <c r="C19" s="11" t="s">
         <v>36</v>
       </c>
       <c r="D19" s="12">
         <f>SUM(D15:D18)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E19" s="12">
         <f>SUM(E15:E18)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" s="6" t="s">
         <v>21</v>
       </c>
@@ -1564,61 +1612,77 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B21" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-    </row>
-    <row r="22" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D21" s="9">
+        <v>10</v>
+      </c>
+      <c r="E21" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-    </row>
-    <row r="23" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D22" s="10">
+        <v>15</v>
+      </c>
+      <c r="E22" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-    </row>
-    <row r="24" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D23" s="10">
+        <v>40</v>
+      </c>
+      <c r="E23" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-    </row>
-    <row r="25" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D24" s="10">
+        <v>35</v>
+      </c>
+      <c r="E24" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="8"/>
       <c r="C25" s="11" t="s">
         <v>36</v>
       </c>
       <c r="D25" s="12">
         <f>SUM(D21:D24)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E25" s="12">
         <f>SUM(E21:E24)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B26" s="6" t="s">
         <v>26</v>
       </c>
@@ -1630,61 +1694,77 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:5" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B27" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-    </row>
-    <row r="28" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D27" s="9">
+        <v>15</v>
+      </c>
+      <c r="E27" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-    </row>
-    <row r="29" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D28" s="10">
+        <v>15</v>
+      </c>
+      <c r="E28" s="10">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-    </row>
-    <row r="30" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D29" s="10">
+        <v>30</v>
+      </c>
+      <c r="E29" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-    </row>
-    <row r="31" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D30" s="10">
+        <v>40</v>
+      </c>
+      <c r="E30" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="8"/>
       <c r="C31" s="11" t="s">
         <v>36</v>
       </c>
       <c r="D31" s="12">
         <f>SUM(D27:D30)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E31" s="12">
         <f>SUM(E27:E30)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B32" s="6" t="s">
         <v>31</v>
       </c>
@@ -1696,57 +1776,73 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:5" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B33" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-    </row>
-    <row r="34" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D33" s="9">
+        <v>10</v>
+      </c>
+      <c r="E33" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-    </row>
-    <row r="35" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D34" s="10">
+        <v>30</v>
+      </c>
+      <c r="E34" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-    </row>
-    <row r="36" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D35" s="10">
+        <v>40</v>
+      </c>
+      <c r="E35" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-    </row>
-    <row r="37" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D36" s="10">
+        <v>20</v>
+      </c>
+      <c r="E36" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C37" s="11" t="s">
         <v>36</v>
       </c>
       <c r="D37" s="12">
         <f>SUM(D33:D36)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E37" s="12">
         <f>SUM(E33:E36)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1765,11 +1861,11 @@
   </sheetPr>
   <dimension ref="B1:Q37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2.5" customWidth="1"/>
     <col min="2" max="2" width="7.5" customWidth="1"/>
@@ -1779,8 +1875,8 @@
     <col min="18" max="18" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:17" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
@@ -1823,7 +1919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:17" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:17" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1875,7 +1971,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1927,7 +2023,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1979,7 +2075,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
@@ -2031,7 +2127,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="8"/>
       <c r="C7" s="11" t="s">
         <v>36</v>
@@ -2083,7 +2179,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="6" t="s">
         <v>19</v>
       </c>
@@ -2133,7 +2229,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="2:17" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:17" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>0</v>
       </c>
@@ -2185,7 +2281,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
@@ -2237,7 +2333,7 @@
         <v>21.666666666666668</v>
       </c>
     </row>
-    <row r="11" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="2" t="s">
         <v>2</v>
       </c>
@@ -2253,44 +2349,44 @@
       <c r="G11" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11" s="27">
         <f>200-(150*(H10/100))</f>
         <v>166.25</v>
       </c>
-      <c r="I11" s="30">
+      <c r="I11" s="27">
         <f>200+(150*(I10/100))</f>
         <v>212.5</v>
       </c>
-      <c r="J11" s="30">
+      <c r="J11" s="27">
         <f>200+(150*(J10/100))</f>
         <v>221.25</v>
       </c>
-      <c r="K11" s="31">
-        <f t="shared" ref="I11:K11" si="8">200-(150*(K10/100))</f>
+      <c r="K11" s="28">
+        <f t="shared" ref="K11" si="8">200-(150*(K10/100))</f>
         <v>117.5</v>
       </c>
-      <c r="L11" s="32"/>
-      <c r="M11" s="33" t="s">
+      <c r="L11" s="29"/>
+      <c r="M11" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="N11" s="30">
+      <c r="N11" s="27">
         <f>200-(150*(N10/100))</f>
         <v>158.75</v>
       </c>
-      <c r="O11" s="30">
+      <c r="O11" s="27">
         <f>200+(150*(O10/100))</f>
         <v>242.5</v>
       </c>
-      <c r="P11" s="30">
+      <c r="P11" s="27">
         <f>200+(150*(P10/100))</f>
         <v>233.75</v>
       </c>
-      <c r="Q11" s="31">
+      <c r="Q11" s="28">
         <f t="shared" ref="Q11" si="9">200-(150*(Q10/100))</f>
         <v>167.5</v>
       </c>
     </row>
-    <row r="12" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
@@ -2306,44 +2402,44 @@
       <c r="G12" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="H12" s="34">
+      <c r="H12" s="31">
         <f>200-(150*(H10/100))</f>
         <v>166.25</v>
       </c>
-      <c r="I12" s="34">
-        <f t="shared" ref="I12:K12" si="10">200-(150*(I10/100))</f>
+      <c r="I12" s="31">
+        <f t="shared" ref="I12" si="10">200-(150*(I10/100))</f>
         <v>187.5</v>
       </c>
-      <c r="J12" s="34">
+      <c r="J12" s="31">
         <f>200+(150*(J10/100))</f>
         <v>221.25</v>
       </c>
-      <c r="K12" s="35">
+      <c r="K12" s="32">
         <f>200+(150*(K10/100))</f>
         <v>282.5</v>
       </c>
-      <c r="L12" s="32"/>
-      <c r="M12" s="36" t="s">
+      <c r="L12" s="29"/>
+      <c r="M12" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="N12" s="34">
+      <c r="N12" s="31">
         <f>200-(150*(N10/100))</f>
         <v>158.75</v>
       </c>
-      <c r="O12" s="34">
-        <f t="shared" ref="O12:Q12" si="11">200-(150*(O10/100))</f>
+      <c r="O12" s="31">
+        <f t="shared" ref="O12" si="11">200-(150*(O10/100))</f>
         <v>157.5</v>
       </c>
-      <c r="P12" s="34">
+      <c r="P12" s="31">
         <f>200+(150*(P10/100))</f>
         <v>233.75</v>
       </c>
-      <c r="Q12" s="35">
+      <c r="Q12" s="32">
         <f>200+(150*(Q10/100))</f>
         <v>232.5</v>
       </c>
     </row>
-    <row r="13" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="8"/>
       <c r="C13" s="11" t="s">
         <v>36</v>
@@ -2356,24 +2452,24 @@
         <f>SUM(E9:E12)</f>
         <v>100</v>
       </c>
-      <c r="G13" s="27" t="str">
+      <c r="G13" s="34" t="str">
         <f>_xlfn.CONCAT("&lt;polygon points=",CHAR(34),INT(H11),",",INT(H12)," ",INT(I11),",",INT(I12)," ",INT(J11),",",INT(J12)," ",INT(K11),",",INT(K12),CHAR(34),"/&gt;")</f>
         <v>&lt;polygon points="166,166 212,187 221,221 117,282"/&gt;</v>
       </c>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="29"/>
-      <c r="M13" s="27" t="str">
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="36"/>
+      <c r="M13" s="34" t="str">
         <f>_xlfn.CONCAT("&lt;polygon points=",CHAR(34),INT(N11),",",INT(N12)," ",INT(O11),",",INT(O12)," ",INT(P11),",",INT(P12)," ",INT(Q11),",",INT(Q12),CHAR(34),"/&gt;")</f>
         <v>&lt;polygon points="158,158 242,157 233,233 167,232"/&gt;</v>
       </c>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="29"/>
-    </row>
-    <row r="14" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="36"/>
+    </row>
+    <row r="14" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="6" t="s">
         <v>20</v>
       </c>
@@ -2385,7 +2481,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="2:17" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:17" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
         <v>0</v>
       </c>
@@ -2399,7 +2495,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="2" t="s">
         <v>1</v>
       </c>
@@ -2413,7 +2509,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="2" t="s">
         <v>2</v>
       </c>
@@ -2427,7 +2523,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="2" t="s">
         <v>3</v>
       </c>
@@ -2441,7 +2537,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="8"/>
       <c r="C19" s="11" t="s">
         <v>36</v>
@@ -2455,7 +2551,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" s="6" t="s">
         <v>21</v>
       </c>
@@ -2467,7 +2563,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B21" s="4" t="s">
         <v>0</v>
       </c>
@@ -2481,7 +2577,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="2" t="s">
         <v>1</v>
       </c>
@@ -2495,7 +2591,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="2" t="s">
         <v>2</v>
       </c>
@@ -2509,7 +2605,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="2" t="s">
         <v>3</v>
       </c>
@@ -2523,7 +2619,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="8"/>
       <c r="C25" s="11" t="s">
         <v>36</v>
@@ -2537,7 +2633,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B26" s="6" t="s">
         <v>26</v>
       </c>
@@ -2549,7 +2645,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:5" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B27" s="4" t="s">
         <v>0</v>
       </c>
@@ -2563,7 +2659,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="2" t="s">
         <v>1</v>
       </c>
@@ -2577,7 +2673,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="2" t="s">
         <v>2</v>
       </c>
@@ -2591,7 +2687,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="2" t="s">
         <v>3</v>
       </c>
@@ -2605,7 +2701,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="8"/>
       <c r="C31" s="11" t="s">
         <v>36</v>
@@ -2619,7 +2715,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="2:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B32" s="6" t="s">
         <v>31</v>
       </c>
@@ -2631,7 +2727,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:5" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B33" s="4" t="s">
         <v>0</v>
       </c>
@@ -2645,7 +2741,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="2" t="s">
         <v>1</v>
       </c>
@@ -2659,7 +2755,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="2" t="s">
         <v>2</v>
       </c>
@@ -2673,7 +2769,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="2" t="s">
         <v>3</v>
       </c>
@@ -2687,7 +2783,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C37" s="11" t="s">
         <v>36</v>
       </c>
@@ -2722,7 +2818,7 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2.5" customWidth="1"/>
     <col min="2" max="2" width="7.5" customWidth="1"/>
@@ -2731,8 +2827,8 @@
     <col min="12" max="12" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:17" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
@@ -2775,7 +2871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:17" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:17" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
@@ -2823,7 +2919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -2871,7 +2967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -2919,7 +3015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
@@ -2967,7 +3063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="8"/>
       <c r="C7" s="11" t="s">
         <v>36</v>
@@ -3019,7 +3115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="6" t="s">
         <v>19</v>
       </c>
@@ -3069,7 +3165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:17" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:17" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>0</v>
       </c>
@@ -3117,7 +3213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
@@ -3165,7 +3261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="2" t="s">
         <v>2</v>
       </c>
@@ -3177,44 +3273,44 @@
       <c r="G11" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11" s="27">
         <f>200-(150*(H10/100))</f>
         <v>200</v>
       </c>
-      <c r="I11" s="30">
+      <c r="I11" s="27">
         <f>200+(150*(I10/100))</f>
         <v>200</v>
       </c>
-      <c r="J11" s="30">
+      <c r="J11" s="27">
         <f>200+(150*(J10/100))</f>
         <v>200</v>
       </c>
-      <c r="K11" s="31">
+      <c r="K11" s="28">
         <f t="shared" ref="K11" si="4">200-(150*(K10/100))</f>
         <v>200</v>
       </c>
-      <c r="L11" s="32"/>
-      <c r="M11" s="33" t="s">
+      <c r="L11" s="29"/>
+      <c r="M11" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="N11" s="30">
+      <c r="N11" s="27">
         <f>200-(150*(N10/100))</f>
         <v>200</v>
       </c>
-      <c r="O11" s="30">
+      <c r="O11" s="27">
         <f>200+(150*(O10/100))</f>
         <v>200</v>
       </c>
-      <c r="P11" s="30">
+      <c r="P11" s="27">
         <f>200+(150*(P10/100))</f>
         <v>200</v>
       </c>
-      <c r="Q11" s="31">
+      <c r="Q11" s="28">
         <f t="shared" ref="Q11" si="5">200-(150*(Q10/100))</f>
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
@@ -3226,44 +3322,44 @@
       <c r="G12" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="H12" s="34">
+      <c r="H12" s="31">
         <f>200-(150*(H10/100))</f>
         <v>200</v>
       </c>
-      <c r="I12" s="34">
-        <f t="shared" ref="I12:K12" si="6">200-(150*(I10/100))</f>
+      <c r="I12" s="31">
+        <f t="shared" ref="I12" si="6">200-(150*(I10/100))</f>
         <v>200</v>
       </c>
-      <c r="J12" s="34">
+      <c r="J12" s="31">
         <f>200+(150*(J10/100))</f>
         <v>200</v>
       </c>
-      <c r="K12" s="35">
+      <c r="K12" s="32">
         <f>200+(150*(K10/100))</f>
         <v>200</v>
       </c>
-      <c r="L12" s="32"/>
-      <c r="M12" s="36" t="s">
+      <c r="L12" s="29"/>
+      <c r="M12" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="N12" s="34">
+      <c r="N12" s="31">
         <f>200-(150*(N10/100))</f>
         <v>200</v>
       </c>
-      <c r="O12" s="34">
-        <f t="shared" ref="O12:Q12" si="7">200-(150*(O10/100))</f>
+      <c r="O12" s="31">
+        <f t="shared" ref="O12" si="7">200-(150*(O10/100))</f>
         <v>200</v>
       </c>
-      <c r="P12" s="34">
+      <c r="P12" s="31">
         <f>200+(150*(P10/100))</f>
         <v>200</v>
       </c>
-      <c r="Q12" s="35">
+      <c r="Q12" s="32">
         <f>200+(150*(Q10/100))</f>
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="8"/>
       <c r="C13" s="11" t="s">
         <v>36</v>
@@ -3276,24 +3372,24 @@
         <f>SUM(E9:E12)</f>
         <v>0</v>
       </c>
-      <c r="G13" s="27" t="str">
+      <c r="G13" s="34" t="str">
         <f>_xlfn.CONCAT("&lt;polygon points=",CHAR(34),INT(H11),",",INT(H12)," ",INT(I11),",",INT(I12)," ",INT(J11),",",INT(J12)," ",INT(K11),",",INT(K12),CHAR(34),"/&gt;")</f>
         <v>&lt;polygon points="200,200 200,200 200,200 200,200"/&gt;</v>
       </c>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="29"/>
-      <c r="M13" s="27" t="str">
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="36"/>
+      <c r="M13" s="34" t="str">
         <f>_xlfn.CONCAT("&lt;polygon points=",CHAR(34),INT(N11),",",INT(N12)," ",INT(O11),",",INT(O12)," ",INT(P11),",",INT(P12)," ",INT(Q11),",",INT(Q12),CHAR(34),"/&gt;")</f>
         <v>&lt;polygon points="200,200 200,200 200,200 200,200"/&gt;</v>
       </c>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="29"/>
-    </row>
-    <row r="14" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="36"/>
+    </row>
+    <row r="14" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="6" t="s">
         <v>20</v>
       </c>
@@ -3305,7 +3401,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="2:17" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:17" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
         <v>0</v>
       </c>
@@ -3315,7 +3411,7 @@
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="2" t="s">
         <v>1</v>
       </c>
@@ -3325,7 +3421,7 @@
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
     </row>
-    <row r="17" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="2" t="s">
         <v>2</v>
       </c>
@@ -3335,7 +3431,7 @@
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
     </row>
-    <row r="18" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="2" t="s">
         <v>3</v>
       </c>
@@ -3345,7 +3441,7 @@
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
     </row>
-    <row r="19" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="8"/>
       <c r="C19" s="11" t="s">
         <v>36</v>
@@ -3359,7 +3455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" s="6" t="s">
         <v>21</v>
       </c>
@@ -3371,7 +3467,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B21" s="4" t="s">
         <v>0</v>
       </c>
@@ -3381,7 +3477,7 @@
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="2" t="s">
         <v>1</v>
       </c>
@@ -3391,7 +3487,7 @@
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
     </row>
-    <row r="23" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="2" t="s">
         <v>2</v>
       </c>
@@ -3401,7 +3497,7 @@
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
     </row>
-    <row r="24" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="2" t="s">
         <v>3</v>
       </c>
@@ -3411,7 +3507,7 @@
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
     </row>
-    <row r="25" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="8"/>
       <c r="C25" s="11" t="s">
         <v>36</v>
@@ -3425,7 +3521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B26" s="6" t="s">
         <v>26</v>
       </c>
@@ -3437,7 +3533,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:5" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B27" s="4" t="s">
         <v>0</v>
       </c>
@@ -3447,7 +3543,7 @@
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
     </row>
-    <row r="28" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="2" t="s">
         <v>1</v>
       </c>
@@ -3457,7 +3553,7 @@
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
     </row>
-    <row r="29" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="2" t="s">
         <v>2</v>
       </c>
@@ -3467,7 +3563,7 @@
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
     </row>
-    <row r="30" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="2" t="s">
         <v>3</v>
       </c>
@@ -3477,7 +3573,7 @@
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
     </row>
-    <row r="31" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="8"/>
       <c r="C31" s="11" t="s">
         <v>36</v>
@@ -3491,7 +3587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B32" s="6" t="s">
         <v>31</v>
       </c>
@@ -3503,7 +3599,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:5" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B33" s="4" t="s">
         <v>0</v>
       </c>
@@ -3513,7 +3609,7 @@
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
     </row>
-    <row r="34" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="2" t="s">
         <v>1</v>
       </c>
@@ -3523,7 +3619,7 @@
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
     </row>
-    <row r="35" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="2" t="s">
         <v>2</v>
       </c>
@@ -3533,7 +3629,7 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
     </row>
-    <row r="36" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="2" t="s">
         <v>3</v>
       </c>
@@ -3543,7 +3639,7 @@
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
     </row>
-    <row r="37" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C37" s="11" t="s">
         <v>36</v>
       </c>
@@ -3576,7 +3672,7 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2.5" customWidth="1"/>
     <col min="2" max="2" width="7.5" customWidth="1"/>
@@ -3585,8 +3681,8 @@
     <col min="12" max="12" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:17" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
@@ -3629,7 +3725,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:17" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:17" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
@@ -3677,7 +3773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -3725,7 +3821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -3773,7 +3869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
@@ -3821,7 +3917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="8"/>
       <c r="C7" s="11" t="s">
         <v>36</v>
@@ -3873,7 +3969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="6" t="s">
         <v>19</v>
       </c>
@@ -3923,7 +4019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:17" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:17" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>0</v>
       </c>
@@ -3971,7 +4067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
@@ -4019,7 +4115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="2" t="s">
         <v>2</v>
       </c>
@@ -4031,44 +4127,44 @@
       <c r="G11" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11" s="27">
         <f>200-(150*(H10/100))</f>
         <v>200</v>
       </c>
-      <c r="I11" s="30">
+      <c r="I11" s="27">
         <f>200+(150*(I10/100))</f>
         <v>200</v>
       </c>
-      <c r="J11" s="30">
+      <c r="J11" s="27">
         <f>200+(150*(J10/100))</f>
         <v>200</v>
       </c>
-      <c r="K11" s="31">
+      <c r="K11" s="28">
         <f t="shared" ref="K11" si="4">200-(150*(K10/100))</f>
         <v>200</v>
       </c>
-      <c r="L11" s="32"/>
-      <c r="M11" s="33" t="s">
+      <c r="L11" s="29"/>
+      <c r="M11" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="N11" s="30">
+      <c r="N11" s="27">
         <f>200-(150*(N10/100))</f>
         <v>200</v>
       </c>
-      <c r="O11" s="30">
+      <c r="O11" s="27">
         <f>200+(150*(O10/100))</f>
         <v>200</v>
       </c>
-      <c r="P11" s="30">
+      <c r="P11" s="27">
         <f>200+(150*(P10/100))</f>
         <v>200</v>
       </c>
-      <c r="Q11" s="31">
+      <c r="Q11" s="28">
         <f t="shared" ref="Q11" si="5">200-(150*(Q10/100))</f>
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
@@ -4080,44 +4176,44 @@
       <c r="G12" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="H12" s="34">
+      <c r="H12" s="31">
         <f>200-(150*(H10/100))</f>
         <v>200</v>
       </c>
-      <c r="I12" s="34">
-        <f t="shared" ref="I12:K12" si="6">200-(150*(I10/100))</f>
+      <c r="I12" s="31">
+        <f t="shared" ref="I12" si="6">200-(150*(I10/100))</f>
         <v>200</v>
       </c>
-      <c r="J12" s="34">
+      <c r="J12" s="31">
         <f>200+(150*(J10/100))</f>
         <v>200</v>
       </c>
-      <c r="K12" s="35">
+      <c r="K12" s="32">
         <f>200+(150*(K10/100))</f>
         <v>200</v>
       </c>
-      <c r="L12" s="32"/>
-      <c r="M12" s="36" t="s">
+      <c r="L12" s="29"/>
+      <c r="M12" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="N12" s="34">
+      <c r="N12" s="31">
         <f>200-(150*(N10/100))</f>
         <v>200</v>
       </c>
-      <c r="O12" s="34">
-        <f t="shared" ref="O12:Q12" si="7">200-(150*(O10/100))</f>
+      <c r="O12" s="31">
+        <f t="shared" ref="O12" si="7">200-(150*(O10/100))</f>
         <v>200</v>
       </c>
-      <c r="P12" s="34">
+      <c r="P12" s="31">
         <f>200+(150*(P10/100))</f>
         <v>200</v>
       </c>
-      <c r="Q12" s="35">
+      <c r="Q12" s="32">
         <f>200+(150*(Q10/100))</f>
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="8"/>
       <c r="C13" s="11" t="s">
         <v>36</v>
@@ -4130,24 +4226,24 @@
         <f>SUM(E9:E12)</f>
         <v>0</v>
       </c>
-      <c r="G13" s="27" t="str">
+      <c r="G13" s="34" t="str">
         <f>_xlfn.CONCAT("&lt;polygon points=",CHAR(34),INT(H11),",",INT(H12)," ",INT(I11),",",INT(I12)," ",INT(J11),",",INT(J12)," ",INT(K11),",",INT(K12),CHAR(34),"/&gt;")</f>
         <v>&lt;polygon points="200,200 200,200 200,200 200,200"/&gt;</v>
       </c>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="29"/>
-      <c r="M13" s="27" t="str">
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="36"/>
+      <c r="M13" s="34" t="str">
         <f>_xlfn.CONCAT("&lt;polygon points=",CHAR(34),INT(N11),",",INT(N12)," ",INT(O11),",",INT(O12)," ",INT(P11),",",INT(P12)," ",INT(Q11),",",INT(Q12),CHAR(34),"/&gt;")</f>
         <v>&lt;polygon points="200,200 200,200 200,200 200,200"/&gt;</v>
       </c>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="29"/>
-    </row>
-    <row r="14" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="36"/>
+    </row>
+    <row r="14" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="6" t="s">
         <v>20</v>
       </c>
@@ -4159,7 +4255,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="2:17" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:17" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
         <v>0</v>
       </c>
@@ -4169,7 +4265,7 @@
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="2" t="s">
         <v>1</v>
       </c>
@@ -4179,7 +4275,7 @@
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
     </row>
-    <row r="17" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="2" t="s">
         <v>2</v>
       </c>
@@ -4189,7 +4285,7 @@
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
     </row>
-    <row r="18" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="2" t="s">
         <v>3</v>
       </c>
@@ -4199,7 +4295,7 @@
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
     </row>
-    <row r="19" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="8"/>
       <c r="C19" s="11" t="s">
         <v>36</v>
@@ -4213,7 +4309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" s="6" t="s">
         <v>21</v>
       </c>
@@ -4225,7 +4321,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B21" s="4" t="s">
         <v>0</v>
       </c>
@@ -4235,7 +4331,7 @@
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="2" t="s">
         <v>1</v>
       </c>
@@ -4245,7 +4341,7 @@
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
     </row>
-    <row r="23" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="2" t="s">
         <v>2</v>
       </c>
@@ -4255,7 +4351,7 @@
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
     </row>
-    <row r="24" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="2" t="s">
         <v>3</v>
       </c>
@@ -4265,7 +4361,7 @@
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
     </row>
-    <row r="25" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="8"/>
       <c r="C25" s="11" t="s">
         <v>36</v>
@@ -4279,7 +4375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B26" s="6" t="s">
         <v>26</v>
       </c>
@@ -4291,7 +4387,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:5" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B27" s="4" t="s">
         <v>0</v>
       </c>
@@ -4301,7 +4397,7 @@
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
     </row>
-    <row r="28" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="2" t="s">
         <v>1</v>
       </c>
@@ -4311,7 +4407,7 @@
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
     </row>
-    <row r="29" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="2" t="s">
         <v>2</v>
       </c>
@@ -4321,7 +4417,7 @@
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
     </row>
-    <row r="30" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="2" t="s">
         <v>3</v>
       </c>
@@ -4331,7 +4427,7 @@
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
     </row>
-    <row r="31" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="8"/>
       <c r="C31" s="11" t="s">
         <v>36</v>
@@ -4345,7 +4441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B32" s="6" t="s">
         <v>31</v>
       </c>
@@ -4357,7 +4453,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:5" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B33" s="4" t="s">
         <v>0</v>
       </c>
@@ -4367,7 +4463,7 @@
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
     </row>
-    <row r="34" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="2" t="s">
         <v>1</v>
       </c>
@@ -4377,7 +4473,7 @@
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
     </row>
-    <row r="35" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="2" t="s">
         <v>2</v>
       </c>
@@ -4387,7 +4483,7 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
     </row>
-    <row r="36" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="2" t="s">
         <v>3</v>
       </c>
@@ -4397,7 +4493,7 @@
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
     </row>
-    <row r="37" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C37" s="11" t="s">
         <v>36</v>
       </c>
@@ -4430,7 +4526,7 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2.5" customWidth="1"/>
     <col min="2" max="2" width="7.5" customWidth="1"/>
@@ -4439,8 +4535,8 @@
     <col min="12" max="12" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:17" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
@@ -4483,7 +4579,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:17" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:17" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
@@ -4492,52 +4588,52 @@
       </c>
       <c r="D3" s="9">
         <f>SUM(Carley:Melissa!D3)</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E3" s="9">
         <f>SUM(Carley:Melissa!E3)</f>
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="G3" s="22" t="s">
         <v>37</v>
       </c>
       <c r="H3" s="14">
         <f>D3</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I3" s="14">
         <f>D4</f>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J3" s="14">
         <f>D5</f>
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="K3" s="15">
         <f>D6</f>
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="M3" s="22" t="s">
         <v>37</v>
       </c>
       <c r="N3" s="14">
         <f>E3</f>
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="O3" s="14">
         <f>E4</f>
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="P3" s="14">
         <f>E5</f>
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="Q3" s="15">
         <f>E6</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -4546,52 +4642,52 @@
       </c>
       <c r="D4" s="10">
         <f>SUM(Carley:Melissa!D4)</f>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E4" s="10">
         <f>SUM(Carley:Melissa!E4)</f>
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="G4" s="22" t="s">
         <v>38</v>
       </c>
       <c r="H4" s="14">
         <f>D9</f>
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I4" s="14">
         <f>D10</f>
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="J4" s="14">
         <f>D11</f>
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="K4" s="15">
         <f>D12</f>
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="M4" s="22" t="s">
         <v>38</v>
       </c>
       <c r="N4" s="14">
         <f>E9</f>
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="O4" s="14">
         <f>E10</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="P4" s="14">
         <f>E11</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Q4" s="15">
         <f>E12</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -4600,52 +4696,52 @@
       </c>
       <c r="D5" s="10">
         <f>SUM(Carley:Melissa!D5)</f>
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="E5" s="10">
         <f>SUM(Carley:Melissa!E5)</f>
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="G5" s="22" t="s">
         <v>39</v>
       </c>
       <c r="H5" s="14">
         <f>D15</f>
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="I5" s="14">
         <f>D16</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J5" s="14">
         <f>D17</f>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="K5" s="15">
         <f>D18</f>
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="M5" s="22" t="s">
         <v>39</v>
       </c>
       <c r="N5" s="14">
         <f>E15</f>
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="O5" s="14">
         <f>E16</f>
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="P5" s="14">
         <f>E17</f>
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="Q5" s="15">
         <f>E18</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
@@ -4654,41 +4750,41 @@
       </c>
       <c r="D6" s="10">
         <f>SUM(Carley:Melissa!D6)</f>
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="E6" s="10">
         <f>SUM(Carley:Melissa!E6)</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G6" s="22" t="s">
         <v>40</v>
       </c>
       <c r="H6" s="14">
         <f>D21</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I6" s="14">
         <f>D22</f>
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="J6" s="14">
         <f>D23</f>
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="K6" s="15">
         <f>D24</f>
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="M6" s="22" t="s">
         <v>40</v>
       </c>
       <c r="N6" s="14">
         <f>E21</f>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="O6" s="14">
         <f>E22</f>
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="P6" s="14">
         <f>E23</f>
@@ -4696,62 +4792,62 @@
       </c>
       <c r="Q6" s="15">
         <f>E24</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="8"/>
       <c r="C7" s="11" t="s">
         <v>36</v>
       </c>
       <c r="D7" s="12">
         <f>SUM(D3:D6)</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E7" s="12">
         <f>SUM(E3:E6)</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G7" s="22" t="s">
         <v>41</v>
       </c>
       <c r="H7" s="14">
         <f>D27</f>
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="I7" s="14">
         <f>D28</f>
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="J7" s="14">
         <f>D29</f>
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="K7" s="15">
         <f>D30</f>
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="M7" s="22" t="s">
         <v>41</v>
       </c>
       <c r="N7" s="14">
         <f>E27</f>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="O7" s="14">
         <f>E28</f>
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="P7" s="14">
         <f>E29</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Q7" s="15">
         <f>E30</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="6" t="s">
         <v>19</v>
       </c>
@@ -4767,30 +4863,30 @@
       </c>
       <c r="H8" s="14">
         <f>D33</f>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I8" s="14">
         <f>D34</f>
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="J8" s="14">
         <f>D35</f>
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="K8" s="15">
         <f>D36</f>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="M8" s="22" t="s">
         <v>42</v>
       </c>
       <c r="N8" s="14">
         <f>E33</f>
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="O8" s="14">
         <f>E34</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="P8" s="14">
         <f>E35</f>
@@ -4798,10 +4894,10 @@
       </c>
       <c r="Q8" s="15">
         <f>E36</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>0</v>
       </c>
@@ -4810,52 +4906,52 @@
       </c>
       <c r="D9" s="9">
         <f>SUM(Carley:Melissa!D9)</f>
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E9" s="9">
         <f>SUM(Carley:Melissa!E9)</f>
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="G9" s="16" t="s">
         <v>43</v>
       </c>
       <c r="H9" s="17">
         <f>SUM(H3:H8)</f>
-        <v>135</v>
+        <v>220</v>
       </c>
       <c r="I9" s="17">
         <f t="shared" ref="I9:K9" si="0">SUM(I3:I8)</f>
-        <v>50</v>
+        <v>145</v>
       </c>
       <c r="J9" s="17">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>285</v>
       </c>
       <c r="K9" s="18">
         <f t="shared" si="0"/>
-        <v>330</v>
+        <v>550</v>
       </c>
       <c r="M9" s="16" t="s">
         <v>43</v>
       </c>
       <c r="N9" s="17">
         <f>SUM(N3:N8)</f>
-        <v>165</v>
+        <v>365</v>
       </c>
       <c r="O9" s="17">
         <f t="shared" ref="O9:Q9" si="1">SUM(O3:O8)</f>
-        <v>170</v>
+        <v>430</v>
       </c>
       <c r="P9" s="17">
         <f t="shared" si="1"/>
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="Q9" s="18">
         <f t="shared" si="1"/>
-        <v>130</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
@@ -4864,52 +4960,52 @@
       </c>
       <c r="D10" s="10">
         <f>SUM(Carley:Melissa!D10)</f>
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E10" s="10">
         <f>SUM(Carley:Melissa!E10)</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G10" s="19" t="s">
         <v>44</v>
       </c>
       <c r="H10" s="20">
         <f>H9/24</f>
-        <v>5.625</v>
+        <v>9.1666666666666661</v>
       </c>
       <c r="I10" s="20">
         <f t="shared" ref="I10:K10" si="2">I9/24</f>
-        <v>2.0833333333333335</v>
+        <v>6.041666666666667</v>
       </c>
       <c r="J10" s="20">
         <f t="shared" si="2"/>
-        <v>3.5416666666666665</v>
+        <v>11.875</v>
       </c>
       <c r="K10" s="21">
         <f t="shared" si="2"/>
-        <v>13.75</v>
+        <v>22.916666666666668</v>
       </c>
       <c r="M10" s="19" t="s">
         <v>44</v>
       </c>
       <c r="N10" s="20">
         <f t="shared" ref="N10:Q10" si="3">N9/24</f>
-        <v>6.875</v>
+        <v>15.208333333333334</v>
       </c>
       <c r="O10" s="20">
         <f t="shared" si="3"/>
-        <v>7.083333333333333</v>
+        <v>17.916666666666668</v>
       </c>
       <c r="P10" s="20">
         <f t="shared" si="3"/>
-        <v>5.625</v>
+        <v>7.291666666666667</v>
       </c>
       <c r="Q10" s="21">
         <f t="shared" si="3"/>
-        <v>5.416666666666667</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+        <v>9.5833333333333339</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="2" t="s">
         <v>2</v>
       </c>
@@ -4918,53 +5014,53 @@
       </c>
       <c r="D11" s="10">
         <f>SUM(Carley:Melissa!D11)</f>
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E11" s="10">
         <f>SUM(Carley:Melissa!E11)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G11" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11" s="27">
         <f>200-(150*(H10/100))</f>
-        <v>191.5625</v>
-      </c>
-      <c r="I11" s="30">
+        <v>186.25</v>
+      </c>
+      <c r="I11" s="27">
         <f>200+(150*(I10/100))</f>
-        <v>203.125</v>
-      </c>
-      <c r="J11" s="30">
+        <v>209.0625</v>
+      </c>
+      <c r="J11" s="27">
         <f>200+(150*(J10/100))</f>
-        <v>205.3125</v>
-      </c>
-      <c r="K11" s="31">
+        <v>217.8125</v>
+      </c>
+      <c r="K11" s="28">
         <f t="shared" ref="K11" si="4">200-(150*(K10/100))</f>
-        <v>179.375</v>
-      </c>
-      <c r="L11" s="32"/>
-      <c r="M11" s="33" t="s">
+        <v>165.625</v>
+      </c>
+      <c r="L11" s="29"/>
+      <c r="M11" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="N11" s="30">
+      <c r="N11" s="27">
         <f>200-(150*(N10/100))</f>
-        <v>189.6875</v>
-      </c>
-      <c r="O11" s="30">
+        <v>177.1875</v>
+      </c>
+      <c r="O11" s="27">
         <f>200+(150*(O10/100))</f>
-        <v>210.625</v>
-      </c>
-      <c r="P11" s="30">
+        <v>226.875</v>
+      </c>
+      <c r="P11" s="27">
         <f>200+(150*(P10/100))</f>
-        <v>208.4375</v>
-      </c>
-      <c r="Q11" s="31">
+        <v>210.9375</v>
+      </c>
+      <c r="Q11" s="28">
         <f t="shared" ref="Q11" si="5">200-(150*(Q10/100))</f>
-        <v>191.875</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>185.625</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
@@ -4973,83 +5069,83 @@
       </c>
       <c r="D12" s="10">
         <f>SUM(Carley:Melissa!D12)</f>
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="E12" s="10">
         <f>SUM(Carley:Melissa!E12)</f>
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="G12" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="H12" s="34">
+      <c r="H12" s="31">
         <f>200-(150*(H10/100))</f>
-        <v>191.5625</v>
-      </c>
-      <c r="I12" s="34">
-        <f t="shared" ref="I12:K12" si="6">200-(150*(I10/100))</f>
-        <v>196.875</v>
-      </c>
-      <c r="J12" s="34">
+        <v>186.25</v>
+      </c>
+      <c r="I12" s="31">
+        <f t="shared" ref="I12" si="6">200-(150*(I10/100))</f>
+        <v>190.9375</v>
+      </c>
+      <c r="J12" s="31">
         <f>200+(150*(J10/100))</f>
-        <v>205.3125</v>
-      </c>
-      <c r="K12" s="35">
+        <v>217.8125</v>
+      </c>
+      <c r="K12" s="32">
         <f>200+(150*(K10/100))</f>
-        <v>220.625</v>
-      </c>
-      <c r="L12" s="32"/>
-      <c r="M12" s="36" t="s">
+        <v>234.375</v>
+      </c>
+      <c r="L12" s="29"/>
+      <c r="M12" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="N12" s="34">
+      <c r="N12" s="31">
         <f>200-(150*(N10/100))</f>
-        <v>189.6875</v>
-      </c>
-      <c r="O12" s="34">
-        <f t="shared" ref="O12:Q12" si="7">200-(150*(O10/100))</f>
-        <v>189.375</v>
-      </c>
-      <c r="P12" s="34">
+        <v>177.1875</v>
+      </c>
+      <c r="O12" s="31">
+        <f t="shared" ref="O12" si="7">200-(150*(O10/100))</f>
+        <v>173.125</v>
+      </c>
+      <c r="P12" s="31">
         <f>200+(150*(P10/100))</f>
-        <v>208.4375</v>
-      </c>
-      <c r="Q12" s="35">
+        <v>210.9375</v>
+      </c>
+      <c r="Q12" s="32">
         <f>200+(150*(Q10/100))</f>
-        <v>208.125</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>214.375</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="8"/>
       <c r="C13" s="11" t="s">
         <v>36</v>
       </c>
       <c r="D13" s="12">
         <f>SUM(D9:D12)</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E13" s="12">
         <f>SUM(E9:E12)</f>
-        <v>100</v>
-      </c>
-      <c r="G13" s="27" t="str">
+        <v>200</v>
+      </c>
+      <c r="G13" s="34" t="str">
         <f>_xlfn.CONCAT("&lt;polygon points=",CHAR(34),INT(H11),",",INT(H12)," ",INT(I11),",",INT(I12)," ",INT(J11),",",INT(J12)," ",INT(K11),",",INT(K12),CHAR(34),"/&gt;")</f>
-        <v>&lt;polygon points="191,191 203,196 205,205 179,220"/&gt;</v>
-      </c>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="29"/>
-      <c r="M13" s="27" t="str">
+        <v>&lt;polygon points="186,186 209,190 217,217 165,234"/&gt;</v>
+      </c>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="36"/>
+      <c r="M13" s="34" t="str">
         <f>_xlfn.CONCAT("&lt;polygon points=",CHAR(34),INT(N11),",",INT(N12)," ",INT(O11),",",INT(O12)," ",INT(P11),",",INT(P12)," ",INT(Q11),",",INT(Q12),CHAR(34),"/&gt;")</f>
-        <v>&lt;polygon points="189,189 210,189 208,208 191,208"/&gt;</v>
-      </c>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="29"/>
-    </row>
-    <row r="14" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>&lt;polygon points="177,177 226,173 210,210 185,214"/&gt;</v>
+      </c>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="36"/>
+    </row>
+    <row r="14" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="6" t="s">
         <v>20</v>
       </c>
@@ -5061,7 +5157,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="2:17" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:17" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
         <v>0</v>
       </c>
@@ -5070,14 +5166,14 @@
       </c>
       <c r="D15" s="9">
         <f>SUM(Carley:Melissa!D15)</f>
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E15" s="9">
         <f>SUM(Carley:Melissa!E15)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="2" t="s">
         <v>1</v>
       </c>
@@ -5086,14 +5182,14 @@
       </c>
       <c r="D16" s="10">
         <f>SUM(Carley:Melissa!D16)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E16" s="10">
         <f>SUM(Carley:Melissa!E16)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="2" t="s">
         <v>2</v>
       </c>
@@ -5102,14 +5198,14 @@
       </c>
       <c r="D17" s="10">
         <f>SUM(Carley:Melissa!D17)</f>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E17" s="10">
         <f>SUM(Carley:Melissa!E17)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="2" t="s">
         <v>3</v>
       </c>
@@ -5118,28 +5214,28 @@
       </c>
       <c r="D18" s="10">
         <f>SUM(Carley:Melissa!D18)</f>
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="E18" s="10">
         <f>SUM(Carley:Melissa!E18)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="8"/>
       <c r="C19" s="11" t="s">
         <v>36</v>
       </c>
       <c r="D19" s="12">
         <f>SUM(D15:D18)</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E19" s="12">
         <f>SUM(E15:E18)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" s="6" t="s">
         <v>21</v>
       </c>
@@ -5151,7 +5247,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B21" s="4" t="s">
         <v>0</v>
       </c>
@@ -5160,14 +5256,14 @@
       </c>
       <c r="D21" s="9">
         <f>SUM(Carley:Melissa!D21)</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E21" s="9">
         <f>SUM(Carley:Melissa!E21)</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="2" t="s">
         <v>1</v>
       </c>
@@ -5176,14 +5272,14 @@
       </c>
       <c r="D22" s="10">
         <f>SUM(Carley:Melissa!D22)</f>
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E22" s="10">
         <f>SUM(Carley:Melissa!E22)</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="2" t="s">
         <v>2</v>
       </c>
@@ -5192,14 +5288,14 @@
       </c>
       <c r="D23" s="10">
         <f>SUM(Carley:Melissa!D23)</f>
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E23" s="10">
         <f>SUM(Carley:Melissa!E23)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="2" t="s">
         <v>3</v>
       </c>
@@ -5208,28 +5304,28 @@
       </c>
       <c r="D24" s="10">
         <f>SUM(Carley:Melissa!D24)</f>
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="E24" s="10">
         <f>SUM(Carley:Melissa!E24)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="8"/>
       <c r="C25" s="11" t="s">
         <v>36</v>
       </c>
       <c r="D25" s="12">
         <f>SUM(D21:D24)</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E25" s="12">
         <f>SUM(E21:E24)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B26" s="6" t="s">
         <v>26</v>
       </c>
@@ -5241,7 +5337,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:5" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B27" s="4" t="s">
         <v>0</v>
       </c>
@@ -5250,14 +5346,14 @@
       </c>
       <c r="D27" s="9">
         <f>SUM(Carley:Melissa!D27)</f>
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="E27" s="9">
         <f>SUM(Carley:Melissa!E27)</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="2" t="s">
         <v>1</v>
       </c>
@@ -5266,14 +5362,14 @@
       </c>
       <c r="D28" s="10">
         <f>SUM(Carley:Melissa!D28)</f>
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E28" s="10">
         <f>SUM(Carley:Melissa!E28)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="2" t="s">
         <v>2</v>
       </c>
@@ -5282,14 +5378,14 @@
       </c>
       <c r="D29" s="10">
         <f>SUM(Carley:Melissa!D29)</f>
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E29" s="10">
         <f>SUM(Carley:Melissa!E29)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="2" t="s">
         <v>3</v>
       </c>
@@ -5298,28 +5394,28 @@
       </c>
       <c r="D30" s="10">
         <f>SUM(Carley:Melissa!D30)</f>
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E30" s="10">
         <f>SUM(Carley:Melissa!E30)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="8"/>
       <c r="C31" s="11" t="s">
         <v>36</v>
       </c>
       <c r="D31" s="12">
         <f>SUM(D27:D30)</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E31" s="12">
         <f>SUM(E27:E30)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B32" s="6" t="s">
         <v>31</v>
       </c>
@@ -5331,7 +5427,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:5" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B33" s="4" t="s">
         <v>0</v>
       </c>
@@ -5340,14 +5436,14 @@
       </c>
       <c r="D33" s="9">
         <f>SUM(Carley:Melissa!D33)</f>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E33" s="9">
         <f>SUM(Carley:Melissa!E33)</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="2" t="s">
         <v>1</v>
       </c>
@@ -5356,14 +5452,14 @@
       </c>
       <c r="D34" s="10">
         <f>SUM(Carley:Melissa!D34)</f>
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E34" s="10">
         <f>SUM(Carley:Melissa!E34)</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="2" t="s">
         <v>2</v>
       </c>
@@ -5372,14 +5468,14 @@
       </c>
       <c r="D35" s="10">
         <f>SUM(Carley:Melissa!D35)</f>
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E35" s="10">
         <f>SUM(Carley:Melissa!E35)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="2" t="s">
         <v>3</v>
       </c>
@@ -5388,24 +5484,24 @@
       </c>
       <c r="D36" s="10">
         <f>SUM(Carley:Melissa!D36)</f>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E36" s="10">
         <f>SUM(Carley:Melissa!E36)</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C37" s="11" t="s">
         <v>36</v>
       </c>
       <c r="D37" s="12">
         <f>SUM(D33:D36)</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E37" s="12">
         <f>SUM(E33:E36)</f>
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
